--- a/storyboard and dialogues/Tłumaczenia Wydry/Reszta-polskich-poprawek.xlsx
+++ b/storyboard and dialogues/Tłumaczenia Wydry/Reszta-polskich-poprawek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarom\Documents\My Games\Wesnoth1.14\data\add-ons\Marbuss_Escape\storyboard and dialogues\Tłumaczenia Wydry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2548EC-E4D0-4CB7-B283-99B3CF4D93E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9C9465-0F4D-435C-BCC0-ED29B4BB22D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="1780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="1799">
   <si>
     <t>Event/Description</t>
   </si>
@@ -8042,7 +8042,64 @@
     <t>The Great Sovereign leaded the Horde to last remaining cities of the Northern Alliance. The King of Gon wasn't lying when he said about the fall of southern defence line. Only a few detachments and groups of deserters remained. The North was shattered and Beatrice was taking care of its remains. During the battle she was surrounded by twelve liches, and she had to fight them with her magic. By surviving, she once again proved the power of elvish shydes.</t>
   </si>
   <si>
-    <t xml:space="preserve">You give me no choice… I've got to supress that </t>
+    <t>A time to rebuild has came. When undeads were gone, roads to southern lands became open. Instantly emissaries were sent to Kingdom of Wesnoth, Elsensefar and the Wesmere Forest. The help came, and dwarves opened their vaults and generously payed all who took part in rebuilding the North. It seemed like the Knalga isn't going to close itself underground from external problems ever again.</t>
+  </si>
+  <si>
+    <t>In regard to Marbus, he engaged himself in rebuilding the North with all his might. In short time the Great Horde gained respect and later, even friendship of other nations. Even if they had a big advantage over them, they didn't use that to deal the devastating blow to the North, moreover, they even helped it stand on its own. They repented for past sins, changed their fate.</t>
+  </si>
+  <si>
+    <t>Under the leadership of the Great Sovereign the orcs populated the North and maintained alliance with all their citizens. This state of matter lasted for five years. The Great Horde in this time dissolved into clans. All of them were subordinate to Marbus and his ideals. Until the time when on the east, close to the border with Elvish Jarls, Gewold came to power.</t>
+  </si>
+  <si>
+    <t>First rumours about mutiny in orcish clans were ignored by northern lands, that once again became great powers. Later though, the threat became clear. Marbus was expected to crush the rebels and once again prove that his reasons are good and honest. Without waiting for the things to develop, he gathered his forces and marched east, to see the mutiny with his own eyes.</t>
+  </si>
+  <si>
+    <t>Eastern road</t>
+  </si>
+  <si>
+    <t>Western road</t>
+  </si>
+  <si>
+    <t>Great river Eugen</t>
+  </si>
+  <si>
+    <t>Gewold's orcs are ready to battle. In regard to our emissary, his head was just sent back along with two bare swords dedicated for you. This Person thinks that peaceful solution is impossible now.</t>
+  </si>
+  <si>
+    <t>Damned Gewold! What was he thinking… That I won't know about it? That I'll stay passive about it? His excesses are going to ruin everything we did for the past five years! He's going to make other races our enemies again. It's time to end that… today.</t>
+  </si>
+  <si>
+    <t>You give me no choice… I've got to supress that mutiny.</t>
+  </si>
+  <si>
+    <t>Defead Gewold</t>
+  </si>
+  <si>
+    <t>This Person feels elves, coming from all sides… Something's wrong…</t>
+  </si>
+  <si>
+    <t>It's probably Elvish Jarls, commanded by Beatrice, they came here to see whether we dealt with this problem or not… And provide help if necessary. Well, they are late…</t>
+  </si>
+  <si>
+    <t>Farewell, Gewold… I'm going to miss your sharp tongue.</t>
+  </si>
+  <si>
+    <t>Marbus! Finally! Could you believe that we waited here for you? The Great Sovereign came! Boys, attension, he's going to make his offended face and start talking about how elves are wonderful! Anyone wants to listen about this elvish witch's graces? Or maybe about that water hag that follows him everywhere? Which one are you going to tell us about today, the Great Sovereign?</t>
+  </si>
+  <si>
+    <t>!!! You attacked Elvish Jarls' lands, incited half of the clans into mutiny, and then openly opposed everything we tried to create. What came into you? Was it that bad living in peace? I provided you home, food, safety! You despise all of that? Only to butcher someone, that's what you want, right? Bloodlust!</t>
+  </si>
+  <si>
+    <t>Blood… Yes, I want blood! Even better, my warriors want it too. All orcs want blood! Only you do not! Nobody except you believes that this alliance is going to last, that we can live together. Even Aidala, your mistress… She follows you even tho she knows it isn't going to succeed! Am I right?</t>
+  </si>
+  <si>
+    <t>This Person doesn't want to speak about it.</t>
+  </si>
+  <si>
+    <t>This Person… dies?</t>
+  </si>
+  <si>
+    <t>Farewell, my love…</t>
   </si>
 </sst>
 </file>
@@ -15334,7 +15391,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="63.75">
+    <row r="49" spans="1:3" ht="76.5">
       <c r="A49" t="s">
         <v>313</v>
       </c>
@@ -16632,8 +16689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -16694,6 +16751,9 @@
       <c r="B5" s="16" t="s">
         <v>997</v>
       </c>
+      <c r="C5" s="16" t="s">
+        <v>1779</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="102">
       <c r="A6" t="s">
@@ -16702,6 +16762,9 @@
       <c r="B6" s="16" t="s">
         <v>998</v>
       </c>
+      <c r="C6" s="16" t="s">
+        <v>1780</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="89.25">
       <c r="A7" t="s">
@@ -16710,6 +16773,9 @@
       <c r="B7" s="16" t="s">
         <v>999</v>
       </c>
+      <c r="C7" s="16" t="s">
+        <v>1781</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="114.75">
       <c r="A8" t="s">
@@ -16718,6 +16784,9 @@
       <c r="B8" s="16" t="s">
         <v>1000</v>
       </c>
+      <c r="C8" s="16" t="s">
+        <v>1782</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
@@ -16726,6 +16795,9 @@
       <c r="B9" s="16" t="s">
         <v>1001</v>
       </c>
+      <c r="C9" s="16" t="s">
+        <v>1783</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
@@ -16734,6 +16806,9 @@
       <c r="B10" s="16" t="s">
         <v>1002</v>
       </c>
+      <c r="C10" s="16" t="s">
+        <v>1784</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
@@ -16742,6 +16817,9 @@
       <c r="B11" s="16" t="s">
         <v>1003</v>
       </c>
+      <c r="C11" s="16" t="s">
+        <v>1785</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="63.75">
       <c r="A12" t="s">
@@ -16750,6 +16828,9 @@
       <c r="B12" s="16" t="s">
         <v>1004</v>
       </c>
+      <c r="C12" s="16" t="s">
+        <v>1786</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="63.75">
       <c r="A13" t="s">
@@ -16758,6 +16839,9 @@
       <c r="B13" s="16" t="s">
         <v>1005</v>
       </c>
+      <c r="C13" s="16" t="s">
+        <v>1787</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="89.25">
       <c r="A14" t="s">
@@ -16766,6 +16850,9 @@
       <c r="B14" s="16" t="s">
         <v>1006</v>
       </c>
+      <c r="C14" s="16" t="s">
+        <v>1793</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="89.25">
       <c r="A15" t="s">
@@ -16774,6 +16861,9 @@
       <c r="B15" s="16" t="s">
         <v>1007</v>
       </c>
+      <c r="C15" s="16" t="s">
+        <v>1794</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="76.5">
       <c r="A16" t="s">
@@ -16782,6 +16872,9 @@
       <c r="B16" s="16" t="s">
         <v>1008</v>
       </c>
+      <c r="C16" s="16" t="s">
+        <v>1795</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
@@ -16798,6 +16891,9 @@
       <c r="B18" s="16" t="s">
         <v>1010</v>
       </c>
+      <c r="C18" s="16" t="s">
+        <v>1796</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="51">
       <c r="A19" t="s">
@@ -16839,7 +16935,7 @@
         <v>1015</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>1779</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -16849,6 +16945,9 @@
       <c r="B24" s="16" t="s">
         <v>1016</v>
       </c>
+      <c r="C24" s="16" t="s">
+        <v>1789</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="38.25">
       <c r="A25" t="s">
@@ -16881,6 +16980,9 @@
       <c r="B28" s="16" t="s">
         <v>1022</v>
       </c>
+      <c r="C28" s="16" t="s">
+        <v>1792</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
@@ -16889,6 +16991,9 @@
       <c r="B29" s="16" t="s">
         <v>1023</v>
       </c>
+      <c r="C29" s="16" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
@@ -16897,6 +17002,9 @@
       <c r="B30" s="16" t="s">
         <v>742</v>
       </c>
+      <c r="C30" s="16" t="s">
+        <v>1520</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="25.5">
       <c r="A31" t="s">
@@ -16905,6 +17013,9 @@
       <c r="B31" s="16" t="s">
         <v>1024</v>
       </c>
+      <c r="C31" s="16" t="s">
+        <v>1790</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="51">
       <c r="A32" t="s">
@@ -16913,6 +17024,9 @@
       <c r="B32" s="16" t="s">
         <v>1025</v>
       </c>
+      <c r="C32" s="16" t="s">
+        <v>1791</v>
+      </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
@@ -17328,6 +17442,9 @@
       <c r="B79" s="16" t="s">
         <v>1074</v>
       </c>
+      <c r="C79" s="16" t="s">
+        <v>1797</v>
+      </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
@@ -17336,16 +17453,22 @@
       <c r="B80" s="16" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80" s="16" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>1073</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="63.75">
+      <c r="C81" s="16" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="63.75">
       <c r="A82" t="s">
         <v>1073</v>
       </c>
@@ -17353,7 +17476,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="51">
+    <row r="83" spans="1:3" ht="51">
       <c r="A83" t="s">
         <v>1073</v>
       </c>
@@ -17361,7 +17484,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="76.5">
+    <row r="84" spans="1:3" ht="76.5">
       <c r="A84" t="s">
         <v>1073</v>
       </c>
@@ -17369,12 +17492,15 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>1073</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>1078</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>1798</v>
       </c>
     </row>
   </sheetData>

--- a/storyboard and dialogues/Tłumaczenia Wydry/Reszta-polskich-poprawek.xlsx
+++ b/storyboard and dialogues/Tłumaczenia Wydry/Reszta-polskich-poprawek.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarom\Documents\My Games\Wesnoth1.14\data\add-ons\Marbuss_Escape\storyboard and dialogues\Tłumaczenia Wydry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9C9465-0F4D-435C-BCC0-ED29B4BB22D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E48B63-94CC-4310-B0D6-78B933A3378C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="1799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="1843">
   <si>
     <t>Event/Description</t>
   </si>
@@ -5730,9 +5730,6 @@
     <t>A na co ci to wygląda? Jesteście okrążeni, Marbus. Czekaliśmy nieopodal, aż wyrżniecie się nawzajem, by następnie zająć się niedobitkami. Szczerze mówiąc, miałam nadzieję, że to Gewold zwycięży. Wiesz... Walczyłby z zapałem, przeklinałby mnie i za wszelką cenę chciał zabić... Natomiast ty... Twoje ględzenie o pokoju i przyjaźni między naszymi rasami jest naprawdę nudne. I bardzo, bardzo głupie.</t>
   </si>
   <si>
-    <t>To Krwawe Elfy! Ci, którzy nie są sprzymierzeni z Jarlami. Bracia, chwyćcie za miecze, pora stanąć do walki. Przeklinam dzień, w którym pozwoliłem ci żyć, dziewczyno!</t>
-  </si>
-  <si>
     <t>Też go przeklinam. Wyśmiano mnie. Mówili o mnie, że dopuściłam się... Wielu nieprzyjemnych rzeczy z tobą, by wyjść z tego wszystkiego cało. Ale ponownie stanęłam na czele Krwawych Elfów. Tym razem uda mi się ciebie zabić, przysięgam ci to.</t>
   </si>
   <si>
@@ -5748,9 +5745,6 @@
     <t>O czym ty mówisz?! Zaraz... Ja cię znam! Jesteś Jarl Tybir! Jeden z wodzów Beatrycze! Dlaczego... Dlaczego tu jesteś?</t>
   </si>
   <si>
-    <t>Ehh... Nie chce mi się tego tłumaczyć. Naprawdę jesteś tak głupui? Stałeś się niewygodny. Orkowie... Wy nie pasujecie. Do nas, do innych ras. Jesteście plugawi, śmierdzicie... Istne potwory do zabijania i straszenia wami dzieci. Nawet mi was trochę żal…</t>
-  </si>
-  <si>
     <t>Ale Beatrycze... Ona nie mogła nas zdradzić! Przecież pomogła nam zabić Króla Gonu! Mamy takie same ideały! Wierzy w to, że możemy się zmienić!</t>
   </si>
   <si>
@@ -5815,9 +5809,6 @@
   </si>
   <si>
     <t>Farewell, augur. Your sacrifice won't come in vain. I will lead your saurians to a new, better life.</t>
-  </si>
-  <si>
-    <t>Her wisdom and venerablity were admirable... I am glad that we had the opportunity to fight at her side.</t>
   </si>
   <si>
     <t>die wolf</t>
@@ -8087,9 +8078,6 @@
     <t>Marbus! Finally! Could you believe that we waited here for you? The Great Sovereign came! Boys, attension, he's going to make his offended face and start talking about how elves are wonderful! Anyone wants to listen about this elvish witch's graces? Or maybe about that water hag that follows him everywhere? Which one are you going to tell us about today, the Great Sovereign?</t>
   </si>
   <si>
-    <t>!!! You attacked Elvish Jarls' lands, incited half of the clans into mutiny, and then openly opposed everything we tried to create. What came into you? Was it that bad living in peace? I provided you home, food, safety! You despise all of that? Only to butcher someone, that's what you want, right? Bloodlust!</t>
-  </si>
-  <si>
     <t>Blood… Yes, I want blood! Even better, my warriors want it too. All orcs want blood! Only you do not! Nobody except you believes that this alliance is going to last, that we can live together. Even Aidala, your mistress… She follows you even tho she knows it isn't going to succeed! Am I right?</t>
   </si>
   <si>
@@ -8100,6 +8088,150 @@
   </si>
   <si>
     <t>Farewell, my love…</t>
+  </si>
+  <si>
+    <t>Well well... Your blade has almost deprived me of my power... For the next thousand of years, at the very least. Do you see the warriors, who have just appeared? They are ghosts... Or rather shadows of these, who attempted to do the same. As you can see, they didn't end up well. They failed.</t>
+  </si>
+  <si>
+    <t>And destroy your battle frenzy like this? Haven't you been waiting for my armies to attack the southern border, before using the horn? Haven't you been preparing for this battle so slowly, taking your time? No, Marbus. This had to happen.</t>
+  </si>
+  <si>
+    <t>That's how I will do, elven Jarl... That's how I will do...</t>
+  </si>
+  <si>
+    <t>Damn it! I got hit! Ugh...</t>
+  </si>
+  <si>
+    <t>*Screams in pain and collapses on his side. His ribcage stops moving.*</t>
+  </si>
+  <si>
+    <t>*Screams in pain.*</t>
+  </si>
+  <si>
+    <t>The hell, Gewold! You attacked Elvish Jarls' lands, incited half of the clans into mutiny, and then openly opposed everything we tried to create. What came into you? Was it that bad living in peace? I provided you home, food, safety! You despise all of that? Only to butcher someone, that's what you want, right? To feed your bloodlust!</t>
+  </si>
+  <si>
+    <t>Gewold, what the... Ugh... Aidala...?</t>
+  </si>
+  <si>
+    <t>Marbus! Are you alright...?</t>
+  </si>
+  <si>
+    <t>This… This is irrelevant! Even if everybody thinks that it cannot succeed, I still believe it can happen! Up until now, everything was going as I planned. Why it would come to an end? Due to your mutiny?</t>
+  </si>
+  <si>
+    <t>My mutiny is necessary, Marbus. You lead us here and I'm glad you did. But you made a mistake. When we won over the King of Gon, you should have lead us to victory, and now… it's too late. Dwarves, elves, humans… They are powerfull, united again. We cannot defead them. Even if they won't attack us, we'll still be pushovers, don't you see it?</t>
+  </si>
+  <si>
+    <t>No, I don't! I don't believe, that Beatrice would betray us. That she would let it happen. I trust them. And I ask you to trust me. Drop your sword and let me lead you this path.</t>
+  </si>
+  <si>
+    <t>I cannot, Marbus… It's not about Beatrice. There are others… Like those, who killed Kochan. There are plenty of them. You don't see them, because you're going around in communities where nobody lets himself to show animosity openly, but we… We see the truth, Marbus. And the truth is that, it's time that we should choose a better sovereign.</t>
+  </si>
+  <si>
+    <t>You didn't think, that alliance with northern nations is possible either. Maybe you were wrong in that matter too? It's a pity that it ended like that.</t>
+  </si>
+  <si>
+    <t>I'm afraid that I'm far from this powdered up sorceress, singing ballads to the moon. I prefer to kill, not to play political games with enemies.</t>
+  </si>
+  <si>
+    <t>Hold your tongue, girl! Even though Blood Elves aren't part of our society, you should still remember about reverence toward highest of our priestesses. Also… She pays you.</t>
+  </si>
+  <si>
+    <t>What?! What on hell is going on?!</t>
+  </si>
+  <si>
+    <t>And what you think it is? You're surrounded, Marbus. We waited nearby for you to slaughter each other to take care of survivors. Honestly, I wanted Gewold to win. You know… He would fight with fervour, and cursed me, and tried to kill me… And you… Your gabbing about friendship and peace between our races is really boring. And very, very stupid.</t>
+  </si>
+  <si>
+    <t>Ugh... Damnit... Turns out you're still in good shape, Marbus... I never thought you will manage to... Defeat me.</t>
+  </si>
+  <si>
+    <t>Me neither... Me neither... Farewall Marbus... And may luck... Be with you... You was a good Great Sovereign... And... A loyal friend.</t>
+  </si>
+  <si>
+    <t>To Krwawe Elfy! Ci, którzy nie są sprzymierzeni z Jarlami. Bracia, to jeszcze nie koniec rozlewu krwi! Tym razem jednak damy naszym mieczom zakosztować słodkiej krwi elfów! Przeklinam dzień, w którym pozwoliłem ci żyć, dziewczyno!</t>
+  </si>
+  <si>
+    <t>It's Blood Elves! Those, who aren't allied with Jarls. That's not the end of bloodshed! This time we'll let our swords taste the sweet blood of elves! I curse the day I let you live, girl!</t>
+  </si>
+  <si>
+    <t>I curse it too. I was held up to ridicule. They said I did… Many unpleasant things with you, to get out of this alive. But I once again took the leadership of Blood Elves. This time I'll kill you, I swear.</t>
+  </si>
+  <si>
+    <t>It better be that, a descendant of Landar. Beatrice doesn't want any orcs left. None of them shall survive this slaughter. And when it ends, you'll get your gold and go south, far after the Great River.</t>
+  </si>
+  <si>
+    <t>Drop your weapons and line up… With your backs to the archers. We promise to finish it quickly, with no unnecessary words and familiarizing. Let it be over with…</t>
+  </si>
+  <si>
+    <t>I… I don't know what to do… I think this is the end, Aidala. Today our story will conclude…</t>
+  </si>
+  <si>
+    <t>Ugh... Troll get hurt... Whelps... Alone... May orc... Take care... Of them.</t>
+  </si>
+  <si>
+    <t>Ugh… This… Is the end…</t>
+  </si>
+  <si>
+    <t>This is how I go back to my ancestors… I awaited this journey for so long... I'm afraid you won't be able to survive this battle, Marbus… Nevertheless…. Thank you for all you did for us…</t>
+  </si>
+  <si>
+    <t>Augur… I'll be missing your advices and company… Of course if I make my way out of it… Helping your people was one of those decisions I'm not going to regret.</t>
+  </si>
+  <si>
+    <t>Hell! Krull! If I make out of this alive, I promise, I'll take care of your offspring!</t>
+  </si>
+  <si>
+    <t>No… Now I won't be able… To lead my warriors…</t>
+  </si>
+  <si>
+    <t>This Person… Sensed it… I'm glad that I could spend so much time with you anyway.</t>
+  </si>
+  <si>
+    <t>Arg…. To hell with it! Even when your race dies out, you still must bite, eh?</t>
+  </si>
+  <si>
+    <t>You deserved it, frenzy girl! I regret letting you live last time. Now I won't spare you again!</t>
+  </si>
+  <si>
+    <t>Maybe it's better? Finish what we started in that cave. At least you can do that much before you die.</t>
+  </si>
+  <si>
+    <t>Her wisdom and venerablity were admirable... It's time for them to delight her ancestors.</t>
+  </si>
+  <si>
+    <t>This Person… I… Imagined it differently… To die protecting her daughters, striking down hundreds of enemies, changing the future, sacrificing myself… I also thought… It would hurt more…. And now I only feel warmth.</t>
+  </si>
+  <si>
+    <t>Aidala! No, not you! Be strong, please… We'll make it, there must be some catacombs, some way to escape underground or to the sky… I think that dwarves breeded grifons somewhere around here…</t>
+  </si>
+  <si>
+    <t>Marbus, they are closing in… What shall we do? After fight with Gewold there are too few of us to even break out and escape! You have to take command over your troops!</t>
+  </si>
+  <si>
+    <t>Wha are you saying?! Wait… I know you! You're Jarl Tybir! One of Beatrice's commanders! Why… Why are you here?</t>
+  </si>
+  <si>
+    <t>It's exactly what it looks like, Marbus… You're surrounded, decimated by recent fratricidal battle. You cannot defead us. We can do anything we want with you. And we want to kill you. Because it's better for us all…</t>
+  </si>
+  <si>
+    <t>Ehh... Nie chce mi się tego tłumaczyć. Naprawdę jesteś tak tępy? Stałeś się niewygodny. Orkowie... Wy nie pasujecie. Do nas, do innych ras. Jesteście plugawi, śmierdzicie... Istne potwory do zabijania i straszenia wami dzieci. Nawet mi was trochę żal…</t>
+  </si>
+  <si>
+    <t>Ehh… I don't want to explain it. Are you really so dense? You become inconvenient. Orcs… You don't fit. To us, other races. You're filthy, you smell… Monsters for slaughtering and scaring children. I even pity you a bit…</t>
+  </si>
+  <si>
+    <t>Marbus... It's fine... I know... That you would want to make things right. To turn it all around... But we can't change the past. I followed you and I'm not going to regret this decision... Don't blame yourself... It seems that you will join me soon... We will reunite in the afterlife...</t>
+  </si>
+  <si>
+    <t>But Beatrice… She couldn't betray us! She helped us kill the King of Gon! We share the ideals! She believes that we can change!</t>
+  </si>
+  <si>
+    <t>Believes… Doesn't believe… It only matters what others believe. And others don't want you. We don't want you. World don't want you. It's your fault that the King of Gon decimated the North. But I'm actually glad he did. Only a few of you left, and we're strong again. We'll defead you and then a time of true peace will come. The world will be a better place without orcs.</t>
+  </si>
+  <si>
+    <t>No! Barley, my faithful companion…</t>
   </si>
 </sst>
 </file>
@@ -8383,8 +8515,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Tekst objaśnienia" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8732,8 +8864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9818,187 +9950,187 @@
         <v>3</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="127.5">
       <c r="B3" s="16" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="114.75">
       <c r="B4" s="16" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="102">
       <c r="B5" s="16" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="102">
       <c r="B6" s="16" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="114.75">
       <c r="B7" s="16" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="127.5">
       <c r="B8" s="16" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="153">
       <c r="B9" s="16" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="127.5">
       <c r="B10" s="16" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="127.5">
       <c r="B11" s="16" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="114.75">
       <c r="B12" s="16" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="102">
       <c r="B13" s="16" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="165.75">
       <c r="B14" s="16" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="165.75">
       <c r="B15" s="16" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="204">
       <c r="B16" s="16" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="204">
       <c r="B17" s="16" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="102">
       <c r="B18" s="16" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="114.75">
       <c r="B19" s="16" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="114.75">
       <c r="B20" s="16" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="114.75">
       <c r="B21" s="16" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="114.75">
       <c r="B22" s="16" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="89.25">
       <c r="B23" s="16" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="114.75">
       <c r="B24" s="16" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="114.75">
       <c r="B25" s="16" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="89.25">
       <c r="B26" s="16" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="127.5">
       <c r="B27" s="16" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="89.25">
       <c r="B28" s="16" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="63.75">
       <c r="B29" s="16" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="76.5">
       <c r="B30" s="16" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="114.75">
       <c r="B31" s="16" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="102">
       <c r="A32" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="89.25">
       <c r="A33" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="89.25">
       <c r="A34" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="89.25">
       <c r="A35" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
   </sheetData>
@@ -10039,533 +10171,533 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="33" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="16" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="16" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="25.5">
       <c r="B5" s="16" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="D5" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="16" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="16" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5">
       <c r="B8" s="16" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="25.5">
       <c r="B9" s="16" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="16" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="16" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="16" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="16" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="34" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="16" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="16" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="25.5">
       <c r="B17" s="16" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="16" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="16" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="16" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="25.5">
       <c r="B21" s="16" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="16" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="16" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="16" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="25.5">
       <c r="B25" s="16" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="32" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="16" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="16" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="25.5">
       <c r="B29" s="16" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="25.5">
       <c r="B30" s="16" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="16" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="16" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="16" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="16" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="16" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="25.5">
       <c r="B36" s="16" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="25.5">
       <c r="B37" s="16" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="16" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="16" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="16" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="16" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="16" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="25.5">
       <c r="B43" s="16" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="16" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="16" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="25.5">
       <c r="B46" s="16" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="16" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="16" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="16" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="16" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="25.5">
       <c r="B51" s="16" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="25.5">
       <c r="B52" s="16" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="16" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="16" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="16" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="16" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" s="16" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="25.5">
       <c r="B58" s="16" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="16" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="114.75">
       <c r="B60" s="35" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="16" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="16" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="16" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="16" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" s="16" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="16" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="16" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="69" spans="2:3">
@@ -10573,15 +10705,15 @@
         <v>4</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" s="16" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="71" spans="2:3">
@@ -10589,7 +10721,7 @@
         <v>346</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="72" spans="2:3">
@@ -10597,180 +10729,180 @@
         <v>487</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="16" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="16" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" s="16" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="16" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" s="16" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" s="16" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" s="16" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="B82" s="16" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="B83" s="16" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" s="16" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" s="16" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="16" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" s="16" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="16" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" s="16" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="90" spans="2:3">
       <c r="B90" s="16" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="91" spans="2:3">
       <c r="B91" s="16" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" s="16" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="93" spans="2:3">
       <c r="B93" s="16" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="B94" s="16" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="B95" s="16" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="96" spans="2:3">
       <c r="B96" s="16" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
     </row>
   </sheetData>
@@ -10814,7 +10946,7 @@
         <v>201</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="102">
@@ -10913,7 +11045,7 @@
         <v>219</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="D11" s="18"/>
     </row>
@@ -10925,7 +11057,7 @@
         <v>220</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="D12" s="18"/>
     </row>
@@ -10937,7 +11069,7 @@
         <v>221</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="D13" s="18"/>
     </row>
@@ -10949,7 +11081,7 @@
         <v>222</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="D14" s="18"/>
     </row>
@@ -10961,7 +11093,7 @@
         <v>223</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="D15" s="18"/>
     </row>
@@ -11615,7 +11747,7 @@
         <v>346</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="102">
@@ -11681,7 +11813,7 @@
         <v>357</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -11692,7 +11824,7 @@
         <v>358</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -11703,7 +11835,7 @@
         <v>359</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -11714,7 +11846,7 @@
         <v>360</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -11725,7 +11857,7 @@
         <v>361</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="38.25">
@@ -12136,7 +12268,7 @@
         <v>443</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="D49" s="40" t="s">
         <v>444</v>
@@ -12469,7 +12601,7 @@
         <v>487</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="114.75">
@@ -12552,7 +12684,7 @@
         <v>501</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="D9" s="23"/>
     </row>
@@ -12564,7 +12696,7 @@
         <v>502</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -12575,7 +12707,7 @@
         <v>503</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -12586,7 +12718,7 @@
         <v>504</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -12597,7 +12729,7 @@
         <v>505</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -12608,7 +12740,7 @@
         <v>506</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -12619,7 +12751,7 @@
         <v>507</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="38.25">
@@ -12807,7 +12939,7 @@
         <v>541</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
@@ -12821,7 +12953,7 @@
         <v>542</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="D33" s="40"/>
       <c r="E33" s="40"/>
@@ -13044,7 +13176,7 @@
         <v>581</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="38.25">
@@ -13245,7 +13377,7 @@
         <v>616</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -13256,7 +13388,7 @@
         <v>617</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -13267,7 +13399,7 @@
         <v>619</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="25.5">
@@ -13344,7 +13476,7 @@
         <v>633</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -13355,7 +13487,7 @@
         <v>634</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -13366,7 +13498,7 @@
         <v>635</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -13377,7 +13509,7 @@
         <v>636</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -13388,7 +13520,7 @@
         <v>637</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -13399,7 +13531,7 @@
         <v>638</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -13410,7 +13542,7 @@
         <v>639</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="38.25">
@@ -13546,10 +13678,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="140.25">
@@ -13557,10 +13689,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="102">
@@ -13568,10 +13700,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="76.5">
@@ -13582,7 +13714,7 @@
         <v>659</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -13593,7 +13725,7 @@
         <v>660</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -13604,7 +13736,7 @@
         <v>661</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -13615,7 +13747,7 @@
         <v>662</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -13626,7 +13758,7 @@
         <v>663</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -13637,7 +13769,7 @@
         <v>664</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -13648,7 +13780,7 @@
         <v>665</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="63.75">
@@ -13656,10 +13788,10 @@
         <v>26</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="51">
@@ -13670,7 +13802,7 @@
         <v>666</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -13681,7 +13813,7 @@
         <v>667</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="38.25">
@@ -13692,7 +13824,7 @@
         <v>668</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="38.25">
@@ -13703,7 +13835,7 @@
         <v>669</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="51">
@@ -13711,10 +13843,10 @@
         <v>26</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="76.5">
@@ -13722,10 +13854,10 @@
         <v>26</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="38.25">
@@ -13736,7 +13868,7 @@
         <v>670</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="51">
@@ -13747,7 +13879,7 @@
         <v>671</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25.5">
@@ -13758,7 +13890,7 @@
         <v>672</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -13769,7 +13901,7 @@
         <v>673</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -13777,7 +13909,7 @@
         <v>674</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -13788,7 +13920,7 @@
         <v>675</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.5">
@@ -13799,7 +13931,7 @@
         <v>676</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="38.25">
@@ -13810,7 +13942,7 @@
         <v>677</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="63.75">
@@ -13818,10 +13950,10 @@
         <v>229</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -13832,7 +13964,7 @@
         <v>678</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -13843,7 +13975,7 @@
         <v>679</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="51">
@@ -13854,7 +13986,7 @@
         <v>680</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="102">
@@ -13865,7 +13997,7 @@
         <v>681</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="89.25">
@@ -13873,10 +14005,10 @@
         <v>229</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="38.25">
@@ -13884,10 +14016,10 @@
         <v>229</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="38.25">
@@ -13895,10 +14027,10 @@
         <v>229</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="38.25">
@@ -13909,7 +14041,7 @@
         <v>682</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="25.5">
@@ -13920,7 +14052,7 @@
         <v>684</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="38.25">
@@ -13931,7 +14063,7 @@
         <v>685</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="25.5">
@@ -13942,7 +14074,7 @@
         <v>686</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -13953,7 +14085,7 @@
         <v>687</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -13964,7 +14096,7 @@
         <v>688</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="25.5">
@@ -13975,7 +14107,7 @@
         <v>689</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="38.25">
@@ -13983,10 +14115,10 @@
         <v>683</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -13997,7 +14129,7 @@
         <v>690</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -14008,7 +14140,7 @@
         <v>691</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="63.75">
@@ -14019,7 +14151,7 @@
         <v>692</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="38.25">
@@ -14027,10 +14159,10 @@
         <v>683</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="51">
@@ -14041,7 +14173,7 @@
         <v>693</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="25.5">
@@ -14052,7 +14184,7 @@
         <v>694</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="25.5">
@@ -14063,7 +14195,7 @@
         <v>695</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="38.25">
@@ -14071,10 +14203,10 @@
         <v>683</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -14085,7 +14217,7 @@
         <v>696</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="38.25">
@@ -14096,7 +14228,7 @@
         <v>697</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="38.25">
@@ -14107,15 +14239,15 @@
         <v>698</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="25.5">
       <c r="B55" s="16" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -14123,7 +14255,7 @@
         <v>699</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="38.25">
@@ -14131,7 +14263,7 @@
         <v>700</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -14139,15 +14271,15 @@
         <v>701</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="38.25">
       <c r="B59" s="16" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="25.5">
@@ -14155,7 +14287,7 @@
         <v>702</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="51">
@@ -14163,7 +14295,7 @@
         <v>703</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="63.75">
@@ -14171,15 +14303,15 @@
         <v>704</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="51">
       <c r="B63" s="16" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="25.5">
@@ -14187,7 +14319,7 @@
         <v>705</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="25.5">
@@ -14195,7 +14327,7 @@
         <v>706</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="25.5">
@@ -14203,7 +14335,7 @@
         <v>707</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -14211,7 +14343,7 @@
         <v>708</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="25.5">
@@ -14219,7 +14351,7 @@
         <v>709</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="25.5">
@@ -14227,7 +14359,7 @@
         <v>710</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="25.5">
@@ -14235,7 +14367,7 @@
         <v>711</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -14243,7 +14375,7 @@
         <v>712</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -14259,7 +14391,7 @@
         <v>675</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -14267,7 +14399,7 @@
         <v>714</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="25.5">
@@ -14275,7 +14407,7 @@
         <v>715</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="51">
@@ -14283,7 +14415,7 @@
         <v>716</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -14291,7 +14423,7 @@
         <v>717</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="25.5">
@@ -14302,7 +14434,7 @@
         <v>719</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="38.25">
@@ -14313,7 +14445,7 @@
         <v>720</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="25.5">
@@ -14321,10 +14453,10 @@
         <v>721</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="25.5">
@@ -14335,7 +14467,7 @@
         <v>722</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="76.5">
@@ -14346,7 +14478,7 @@
         <v>723</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="25.5">
@@ -14357,7 +14489,7 @@
         <v>724</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="51">
@@ -14365,10 +14497,10 @@
         <v>721</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="25.5">
@@ -14379,7 +14511,7 @@
         <v>725</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="25.5">
@@ -14390,7 +14522,7 @@
         <v>727</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="25.5">
@@ -14398,15 +14530,15 @@
         <v>728</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="25.5">
       <c r="B88" s="16" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="25.5">
@@ -14414,7 +14546,7 @@
         <v>722</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="76.5">
@@ -14422,7 +14554,7 @@
         <v>723</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="25.5">
@@ -14430,15 +14562,15 @@
         <v>724</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="63.75">
       <c r="B92" s="16" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="25.5">
@@ -14446,7 +14578,7 @@
         <v>728</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -14454,7 +14586,7 @@
         <v>729</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -14462,7 +14594,7 @@
         <v>730</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -14470,7 +14602,7 @@
         <v>731</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="97" spans="2:3">
@@ -14478,7 +14610,7 @@
         <v>732</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="98" spans="2:3">
@@ -14486,7 +14618,7 @@
         <v>733</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="99" spans="2:3">
@@ -14494,7 +14626,7 @@
         <v>734</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="100" spans="2:3">
@@ -14502,7 +14634,7 @@
         <v>735</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="101" spans="2:3">
@@ -14510,7 +14642,7 @@
         <v>736</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="102" spans="2:3" ht="25.5">
@@ -14518,7 +14650,7 @@
         <v>737</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="25.5">
@@ -14526,7 +14658,7 @@
         <v>738</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="25.5">
@@ -14534,15 +14666,15 @@
         <v>739</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="B105" s="16" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="38.25">
@@ -14550,7 +14682,7 @@
         <v>740</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="107" spans="2:3">
@@ -14558,7 +14690,7 @@
         <v>741</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="108" spans="2:3">
@@ -14566,7 +14698,7 @@
         <v>742</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="109" spans="2:3">
@@ -14574,7 +14706,7 @@
         <v>743</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="110" spans="2:3">
@@ -14582,7 +14714,7 @@
         <v>744</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="25.5">
@@ -14590,7 +14722,7 @@
         <v>745</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="25.5">
@@ -14598,7 +14730,7 @@
         <v>746</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="113" spans="2:3" ht="25.5">
@@ -14606,7 +14738,7 @@
         <v>747</v>
       </c>
       <c r="C113" s="38" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="114" spans="2:3">
@@ -14614,23 +14746,23 @@
         <v>748</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="115" spans="2:3">
       <c r="B115" s="16" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="116" spans="2:3" ht="51">
       <c r="B116" s="16" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="117" spans="2:3">
@@ -14638,7 +14770,7 @@
         <v>749</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="118" spans="2:3" ht="25.5">
@@ -14646,7 +14778,7 @@
         <v>750</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="119" spans="2:3">
@@ -14654,7 +14786,7 @@
         <v>751</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="120" spans="2:3" ht="25.5">
@@ -14662,7 +14794,7 @@
         <v>752</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="121" spans="2:3" ht="25.5">
@@ -14670,7 +14802,7 @@
         <v>753</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="122" spans="2:3">
@@ -14686,7 +14818,7 @@
         <v>755</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="124" spans="2:3" ht="25.5">
@@ -14694,15 +14826,15 @@
         <v>756</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="125" spans="2:3" ht="25.5">
       <c r="B125" s="16" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="126" spans="2:3" ht="51">
@@ -14710,15 +14842,15 @@
         <v>757</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="127" spans="2:3" ht="76.5">
       <c r="B127" s="16" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="128" spans="2:3">
@@ -14726,7 +14858,7 @@
         <v>758</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="129" spans="2:3" ht="63.75" customHeight="1">
@@ -14734,7 +14866,7 @@
         <v>759</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="130" spans="2:3" ht="89.25">
@@ -14742,7 +14874,7 @@
         <v>760</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="131" spans="2:3">
@@ -14750,7 +14882,7 @@
         <v>761</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="132" spans="2:3" ht="114.75">
@@ -14758,7 +14890,7 @@
         <v>762</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="133" spans="2:3" ht="25.5">
@@ -14766,7 +14898,7 @@
         <v>763</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="134" spans="2:3" ht="25.5">
@@ -14774,15 +14906,15 @@
         <v>764</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="135" spans="2:3" ht="38.25">
       <c r="B135" s="16" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="136" spans="2:3" ht="25.5">
@@ -14790,7 +14922,7 @@
         <v>765</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="137" spans="2:3" ht="38.25">
@@ -14798,31 +14930,31 @@
         <v>766</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="138" spans="2:3" ht="25.5">
       <c r="B138" s="16" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="139" spans="2:3" ht="63.75">
       <c r="B139" s="16" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="140" spans="2:3" ht="38.25">
       <c r="B140" s="16" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="141" spans="2:3" ht="38.25">
@@ -14830,23 +14962,23 @@
         <v>767</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="142" spans="2:3" ht="63.75">
       <c r="B142" s="16" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="143" spans="2:3" ht="63.75">
       <c r="B143" s="16" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="C143" s="36" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
     </row>
   </sheetData>
@@ -14863,7 +14995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -14894,7 +15026,7 @@
         <v>768</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="89.25">
@@ -14965,7 +15097,7 @@
         <v>780</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -14976,7 +15108,7 @@
         <v>501</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -14987,7 +15119,7 @@
         <v>222</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -14998,7 +15130,7 @@
         <v>781</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -15009,7 +15141,7 @@
         <v>782</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -15020,7 +15152,7 @@
         <v>783</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="38.25">
@@ -15031,7 +15163,7 @@
         <v>784</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -15042,7 +15174,7 @@
         <v>785</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="51">
@@ -15064,7 +15196,7 @@
         <v>788</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -15177,7 +15309,7 @@
         <v>808</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -15311,7 +15443,7 @@
         <v>835</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -15322,7 +15454,7 @@
         <v>837</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="63.75">
@@ -15377,7 +15509,7 @@
         <v>848</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="25.5">
@@ -15399,7 +15531,7 @@
         <v>851</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="51">
@@ -15421,7 +15553,7 @@
         <v>854</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="38.25">
@@ -15465,7 +15597,7 @@
         <v>861</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="25.5">
@@ -15490,7 +15622,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="51">
+    <row r="58" spans="1:3" ht="38.25">
       <c r="A58" t="s">
         <v>313</v>
       </c>
@@ -15518,8 +15650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView topLeftCell="A68" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15548,7 +15680,7 @@
         <v>868</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="165.75">
@@ -15559,7 +15691,7 @@
         <v>869</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="165.75">
@@ -15570,7 +15702,7 @@
         <v>870</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="165.75">
@@ -15581,7 +15713,7 @@
         <v>871</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="229.5">
@@ -15592,7 +15724,7 @@
         <v>872</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -15608,7 +15740,7 @@
         <v>873</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -15616,7 +15748,7 @@
         <v>874</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5">
@@ -15627,7 +15759,7 @@
         <v>875</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="38.25">
@@ -15638,7 +15770,7 @@
         <v>876</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5">
@@ -15649,7 +15781,7 @@
         <v>877</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="63.75">
@@ -15660,7 +15792,7 @@
         <v>878</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="D13" t="s">
         <v>879</v>
@@ -15674,7 +15806,7 @@
         <v>880</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="63.75">
@@ -15685,7 +15817,7 @@
         <v>881</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="63.75">
@@ -15696,7 +15828,7 @@
         <v>882</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="51">
@@ -15707,7 +15839,7 @@
         <v>883</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="51">
@@ -15718,7 +15850,7 @@
         <v>884</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="38.25">
@@ -15729,7 +15861,7 @@
         <v>885</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -15740,7 +15872,7 @@
         <v>886</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -15751,7 +15883,7 @@
         <v>887</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25.5">
@@ -15762,7 +15894,7 @@
         <v>888</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="25.5">
@@ -15773,7 +15905,7 @@
         <v>889</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="38.25">
@@ -15784,7 +15916,7 @@
         <v>890</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="63.75">
@@ -15795,7 +15927,7 @@
         <v>891</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="51">
@@ -15806,7 +15938,7 @@
         <v>892</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="102">
@@ -15817,7 +15949,7 @@
         <v>893</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="51">
@@ -15828,7 +15960,7 @@
         <v>894</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="51">
@@ -15839,7 +15971,7 @@
         <v>895</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -15850,7 +15982,7 @@
         <v>896</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="25.5">
@@ -15861,7 +15993,7 @@
         <v>897</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25.5">
@@ -15872,7 +16004,7 @@
         <v>898</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -15883,7 +16015,7 @@
         <v>899</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -15894,7 +16026,7 @@
         <v>900</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -15905,7 +16037,7 @@
         <v>901</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -15916,7 +16048,7 @@
         <v>902</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -15927,7 +16059,7 @@
         <v>903</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -15938,7 +16070,7 @@
         <v>904</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -15949,7 +16081,7 @@
         <v>905</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -15960,7 +16092,7 @@
         <v>222</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -15971,7 +16103,7 @@
         <v>781</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -15998,7 +16130,7 @@
         <v>909</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="25.5">
@@ -16009,7 +16141,7 @@
         <v>910</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="25.5">
@@ -16020,7 +16152,7 @@
         <v>911</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="51">
@@ -16031,7 +16163,7 @@
         <v>913</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="51">
@@ -16042,7 +16174,7 @@
         <v>914</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="63.75">
@@ -16052,6 +16184,9 @@
       <c r="B49" s="16" t="s">
         <v>915</v>
       </c>
+      <c r="C49" s="16" t="s">
+        <v>1796</v>
+      </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
@@ -16061,12 +16196,15 @@
         <v>916</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="63.75">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="76.5">
       <c r="B51" s="16" t="s">
         <v>917</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>1795</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="25.5">
@@ -16074,7 +16212,7 @@
         <v>918</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="38.25">
@@ -16082,7 +16220,7 @@
         <v>919</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="63.75">
@@ -16090,7 +16228,7 @@
         <v>920</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="38.25">
@@ -16098,7 +16236,7 @@
         <v>921</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -16106,7 +16244,7 @@
         <v>922</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="25.5">
@@ -16114,7 +16252,7 @@
         <v>923</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="76.5">
@@ -16122,7 +16260,7 @@
         <v>924</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="63.75">
@@ -16130,7 +16268,7 @@
         <v>925</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="76.5">
@@ -16138,7 +16276,7 @@
         <v>926</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="89.25">
@@ -16146,7 +16284,7 @@
         <v>927</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="76.5">
@@ -16154,7 +16292,7 @@
         <v>928</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="76.5">
@@ -16162,7 +16300,7 @@
         <v>929</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="89.25">
@@ -16170,7 +16308,7 @@
         <v>930</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="89.25">
@@ -16178,7 +16316,7 @@
         <v>931</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="51">
@@ -16186,7 +16324,7 @@
         <v>932</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="51">
@@ -16194,7 +16332,7 @@
         <v>933</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="25.5">
@@ -16202,7 +16340,7 @@
         <v>934</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="25.5">
@@ -16210,7 +16348,7 @@
         <v>935</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="63.75">
@@ -16218,7 +16356,7 @@
         <v>936</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="71" spans="2:3">
@@ -16234,7 +16372,7 @@
         <v>938</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="51">
@@ -16242,7 +16380,7 @@
         <v>939</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="74" spans="2:3">
@@ -16250,7 +16388,7 @@
         <v>940</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="89.25">
@@ -16258,7 +16396,7 @@
         <v>941</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="25.5">
@@ -16266,7 +16404,7 @@
         <v>942</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="51">
@@ -16274,7 +16412,7 @@
         <v>943</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="78" spans="2:3">
@@ -16282,20 +16420,23 @@
         <v>944</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="B79" s="16" t="s">
         <v>945</v>
       </c>
+      <c r="C79" s="16" t="s">
+        <v>1803</v>
+      </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" s="16" t="s">
         <v>946</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="63.75">
@@ -16303,7 +16444,7 @@
         <v>947</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="82" spans="2:3">
@@ -16311,7 +16452,7 @@
         <v>948</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="25.5">
@@ -16319,7 +16460,7 @@
         <v>949</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="76.5">
@@ -16327,7 +16468,7 @@
         <v>950</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="25.5">
@@ -16335,7 +16476,7 @@
         <v>951</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="89.25">
@@ -16343,7 +16484,7 @@
         <v>952</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="38.25">
@@ -16351,7 +16492,7 @@
         <v>953</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="38.25">
@@ -16359,7 +16500,7 @@
         <v>954</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="76.5">
@@ -16367,7 +16508,7 @@
         <v>955</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="38.25">
@@ -16375,7 +16516,7 @@
         <v>956</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="91" spans="2:3" ht="76.5">
@@ -16383,7 +16524,7 @@
         <v>957</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="76.5">
@@ -16391,7 +16532,7 @@
         <v>958</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="93" spans="2:3" ht="25.5">
@@ -16399,7 +16540,7 @@
         <v>959</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="94" spans="2:3" ht="76.5">
@@ -16407,7 +16548,7 @@
         <v>960</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="25.5">
@@ -16415,7 +16556,7 @@
         <v>961</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="102">
@@ -16423,7 +16564,7 @@
         <v>962</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="89.25">
@@ -16431,7 +16572,7 @@
         <v>963</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="38.25">
@@ -16439,7 +16580,7 @@
         <v>964</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="63.75">
@@ -16450,7 +16591,7 @@
         <v>966</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="89.25">
@@ -16458,7 +16599,7 @@
         <v>967</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="102">
@@ -16466,7 +16607,7 @@
         <v>968</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="89.25">
@@ -16474,7 +16615,7 @@
         <v>969</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="38.25">
@@ -16482,7 +16623,7 @@
         <v>970</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -16490,7 +16631,7 @@
         <v>971</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="102">
@@ -16498,7 +16639,7 @@
         <v>972</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="51">
@@ -16506,7 +16647,7 @@
         <v>973</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="51">
@@ -16514,7 +16655,7 @@
         <v>974</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -16522,7 +16663,7 @@
         <v>975</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="76.5">
@@ -16530,7 +16671,7 @@
         <v>976</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="63.75">
@@ -16538,7 +16679,7 @@
         <v>977</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="76.5">
@@ -16546,7 +16687,7 @@
         <v>978</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -16557,7 +16698,7 @@
         <v>980</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -16568,7 +16709,7 @@
         <v>981</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="51">
@@ -16579,7 +16720,7 @@
         <v>982</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -16589,6 +16730,9 @@
       <c r="B115" s="16" t="s">
         <v>983</v>
       </c>
+      <c r="C115" s="16" t="s">
+        <v>1797</v>
+      </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
@@ -16597,6 +16741,9 @@
       <c r="B116" s="16" t="s">
         <v>985</v>
       </c>
+      <c r="C116" s="16" t="s">
+        <v>1798</v>
+      </c>
     </row>
     <row r="117" spans="1:3" ht="25.5">
       <c r="A117" t="s">
@@ -16606,7 +16753,7 @@
         <v>986</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="51">
@@ -16617,7 +16764,7 @@
         <v>987</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -16628,7 +16775,7 @@
         <v>988</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="38.25">
@@ -16639,7 +16786,7 @@
         <v>990</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="38.25">
@@ -16650,7 +16797,7 @@
         <v>991</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="89.25">
@@ -16661,7 +16808,7 @@
         <v>993</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="63.75">
@@ -16672,7 +16819,7 @@
         <v>994</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
     </row>
   </sheetData>
@@ -16689,8 +16836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -16719,7 +16866,7 @@
         <v>995</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="63.75">
@@ -16727,10 +16874,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="114.75">
@@ -16741,7 +16888,7 @@
         <v>996</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="102">
@@ -16752,7 +16899,7 @@
         <v>997</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="102">
@@ -16763,7 +16910,7 @@
         <v>998</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="89.25">
@@ -16774,7 +16921,7 @@
         <v>999</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="114.75">
@@ -16785,7 +16932,7 @@
         <v>1000</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -16796,7 +16943,7 @@
         <v>1001</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -16807,7 +16954,7 @@
         <v>1002</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -16818,7 +16965,7 @@
         <v>1003</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="63.75">
@@ -16829,7 +16976,7 @@
         <v>1004</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="63.75">
@@ -16840,7 +16987,7 @@
         <v>1005</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="89.25">
@@ -16851,7 +16998,7 @@
         <v>1006</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="89.25">
@@ -16862,7 +17009,7 @@
         <v>1007</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>1794</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="76.5">
@@ -16873,7 +17020,7 @@
         <v>1008</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -16883,6 +17030,9 @@
       <c r="B17" s="16" t="s">
         <v>1009</v>
       </c>
+      <c r="C17" s="16" t="s">
+        <v>1802</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
@@ -16892,7 +17042,7 @@
         <v>1010</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="51">
@@ -16902,6 +17052,9 @@
       <c r="B19" s="16" t="s">
         <v>1011</v>
       </c>
+      <c r="C19" s="16" t="s">
+        <v>1804</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="102">
       <c r="A20" t="s">
@@ -16910,6 +17063,9 @@
       <c r="B20" s="16" t="s">
         <v>1012</v>
       </c>
+      <c r="C20" s="16" t="s">
+        <v>1805</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="51">
       <c r="A21" t="s">
@@ -16918,13 +17074,19 @@
       <c r="B21" s="16" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="76.5">
+      <c r="C21" s="16" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="89.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>1014</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>1807</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -16935,7 +17097,7 @@
         <v>1015</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -16946,7 +17108,7 @@
         <v>1016</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="38.25">
@@ -16956,6 +17118,9 @@
       <c r="B25" s="16" t="s">
         <v>1018</v>
       </c>
+      <c r="C25" s="16" t="s">
+        <v>1813</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="38.25">
       <c r="A26" t="s">
@@ -16964,6 +17129,9 @@
       <c r="B26" s="16" t="s">
         <v>1019</v>
       </c>
+      <c r="C26" s="16" t="s">
+        <v>1808</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="38.25">
       <c r="A27" t="s">
@@ -16972,6 +17140,9 @@
       <c r="B27" s="16" t="s">
         <v>1020</v>
       </c>
+      <c r="C27" s="16" t="s">
+        <v>1814</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="25.5">
       <c r="A28" t="s">
@@ -16981,7 +17152,7 @@
         <v>1022</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -17003,7 +17174,7 @@
         <v>742</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="25.5">
@@ -17014,7 +17185,7 @@
         <v>1024</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="51">
@@ -17025,7 +17196,7 @@
         <v>1025</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -17058,7 +17229,7 @@
         <v>1028</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -17112,6 +17283,9 @@
       <c r="B40" s="16" t="s">
         <v>1033</v>
       </c>
+      <c r="C40" s="16" t="s">
+        <v>1809</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="51">
       <c r="A41" t="s">
@@ -17120,6 +17294,9 @@
       <c r="B41" s="16" t="s">
         <v>1034</v>
       </c>
+      <c r="C41" s="16" t="s">
+        <v>1810</v>
+      </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
@@ -17128,6 +17305,9 @@
       <c r="B42" s="16" t="s">
         <v>1035</v>
       </c>
+      <c r="C42" s="16" t="s">
+        <v>1811</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="102">
       <c r="A43" t="s">
@@ -17136,13 +17316,19 @@
       <c r="B43" s="16" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="51">
+      <c r="C43" s="16" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="63.75">
       <c r="A44" t="s">
         <v>1021</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>1037</v>
+        <v>1815</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>1816</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="63.75">
@@ -17150,7 +17336,10 @@
         <v>1021</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>1038</v>
+        <v>1037</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>1817</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="63.75">
@@ -17158,7 +17347,10 @@
         <v>1021</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>1039</v>
+        <v>1038</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>1818</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="38.25">
@@ -17166,7 +17358,10 @@
         <v>1021</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>1040</v>
+        <v>1039</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>1819</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -17176,13 +17371,19 @@
       <c r="B48" s="16" t="s">
         <v>1035</v>
       </c>
+      <c r="C48" s="16" t="s">
+        <v>1811</v>
+      </c>
     </row>
     <row r="49" spans="1:3" ht="63.75">
       <c r="A49" t="s">
         <v>1021</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>1041</v>
+        <v>1040</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>1836</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="38.25">
@@ -17190,7 +17391,10 @@
         <v>1021</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>1042</v>
+        <v>1041</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>1835</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="63.75">
@@ -17198,7 +17402,10 @@
         <v>1021</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>1043</v>
+        <v>1837</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>1838</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="38.25">
@@ -17206,7 +17413,10 @@
         <v>1021</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>1044</v>
+        <v>1042</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>1840</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="89.25">
@@ -17214,7 +17424,10 @@
         <v>1021</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>1045</v>
+        <v>1043</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>1841</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="51">
@@ -17222,7 +17435,10 @@
         <v>1021</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>1046</v>
+        <v>1044</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>1834</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="25.5">
@@ -17230,7 +17446,10 @@
         <v>1021</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>1047</v>
+        <v>1045</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>1820</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="25.5">
@@ -17238,7 +17457,10 @@
         <v>1021</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>1048</v>
+        <v>1046</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>1827</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -17246,261 +17468,306 @@
         <v>258</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="25.5">
       <c r="A58" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>1052</v>
+        <v>1050</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>1826</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B59" s="16" t="s">
         <v>1051</v>
       </c>
-      <c r="B59" s="16" t="s">
-        <v>1053</v>
+      <c r="C59" s="16" t="s">
+        <v>1822</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="38.25">
       <c r="A60" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C60" s="16" t="s">
         <v>1054</v>
-      </c>
-      <c r="B60" s="34" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="25.5">
       <c r="A61" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>1057</v>
+        <v>1055</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>1821</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="25.5">
       <c r="A62" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>1326</v>
+        <v>1323</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>1825</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="32.25" customHeight="1">
       <c r="A63" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B64" s="24" t="s">
         <v>1058</v>
       </c>
-      <c r="B64" s="24" t="s">
-        <v>1060</v>
-      </c>
       <c r="C64" s="16" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="25.5">
       <c r="A65" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="25.5">
       <c r="A66" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="51">
       <c r="A67" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>1330</v>
+        <v>1327</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>1823</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="51">
       <c r="A68" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>1331</v>
+        <v>1328</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>1824</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="38.25">
       <c r="A69" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="25.5">
       <c r="A70" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C70" s="36" t="s">
-        <v>1066</v>
+        <v>1330</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>1831</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>1068</v>
+        <v>1065</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>1800</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="25.5">
       <c r="A73" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>1069</v>
+        <v>1066</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>1799</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B74" s="16" t="s">
         <v>1067</v>
       </c>
-      <c r="B74" s="16" t="s">
-        <v>1070</v>
+      <c r="C74" s="16" t="s">
+        <v>1842</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="25.5">
       <c r="A75" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>1334</v>
+        <v>1331</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>1828</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="38.25">
       <c r="A76" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>1335</v>
+        <v>1332</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>1829</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="25.5">
       <c r="A77" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>1072</v>
+        <v>1069</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>1830</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B81" s="16" t="s">
         <v>1073</v>
       </c>
-      <c r="B81" s="16" t="s">
-        <v>1076</v>
-      </c>
       <c r="C81" s="16" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="63.75">
       <c r="A82" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>1077</v>
+        <v>1074</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>1832</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="51">
       <c r="A83" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>1336</v>
+        <v>1333</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="76.5">
       <c r="A84" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>1337</v>
+        <v>1334</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>1839</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
     </row>
   </sheetData>
@@ -17517,7 +17784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
@@ -17544,7 +17811,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="76.5">
@@ -17552,7 +17819,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="114.75">
@@ -17560,7 +17827,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="114.75">
@@ -17568,7 +17835,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="102">
@@ -17576,7 +17843,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -17584,7 +17851,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -17592,7 +17859,7 @@
         <v>218</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -17600,7 +17867,7 @@
         <v>218</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -17616,7 +17883,7 @@
         <v>218</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -17624,7 +17891,7 @@
         <v>218</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -17632,7 +17899,7 @@
         <v>218</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -17640,7 +17907,7 @@
         <v>218</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -17648,7 +17915,7 @@
         <v>218</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="76.5">
@@ -17656,7 +17923,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="51">
@@ -17664,7 +17931,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -17672,7 +17939,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="51">
@@ -17680,7 +17947,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -17688,7 +17955,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="76.5">
@@ -17696,7 +17963,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="89.25">
@@ -17704,7 +17971,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="63.75">
@@ -17712,7 +17979,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -17720,581 +17987,581 @@
         <v>258</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="51">
       <c r="A25" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="102">
       <c r="A26" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="38.25">
       <c r="A27" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="76.5">
       <c r="A28" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="38.25">
       <c r="A30" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="25.5">
       <c r="A31" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="38.25">
       <c r="A32" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="25.5">
       <c r="A33" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="51">
       <c r="A35" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="38.25">
       <c r="A37" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>1101</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="76.5">
       <c r="A38" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="25.5">
       <c r="A39" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="25.5">
       <c r="A40" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="51">
       <c r="A41" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="38.25">
       <c r="A42" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B42" s="16" t="s">
         <v>1107</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="25.5">
       <c r="A43" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="51">
       <c r="A44" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="76.5">
       <c r="A45" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="89.25">
       <c r="A46" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="51">
       <c r="A47" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="76.5">
       <c r="A48" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B50" s="16" t="s">
         <v>1112</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="76.5">
       <c r="A52" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="38.25">
       <c r="A54" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="89.25">
       <c r="A55" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="25.5">
       <c r="A56" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="51">
       <c r="A58" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="51">
       <c r="A59" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="76.5">
       <c r="A61" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="25.5">
       <c r="A63" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="63.75">
       <c r="A64" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="89.25">
       <c r="A66" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="38.25">
       <c r="A67" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="63.75">
       <c r="A68" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="25.5">
       <c r="A70" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="51">
       <c r="A71" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="38.25">
       <c r="A72" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="51">
       <c r="A73" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="89.25">
       <c r="A74" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="25.5">
       <c r="A75" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="89.25">
       <c r="A76" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="25.5">
       <c r="A77" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="25.5">
       <c r="A79" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="38.25">
       <c r="A80" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="38.25">
       <c r="A81" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="25.5">
       <c r="A82" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B82" s="16" t="s">
         <v>1134</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="25.5">
       <c r="A83" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="25.5">
       <c r="A84" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="38.25">
       <c r="A87" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="51">
       <c r="A88" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B89" s="16" t="s">
         <v>1138</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="25.5">
       <c r="A93" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="38.25">
@@ -18302,7 +18569,7 @@
         <v>39</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -18310,7 +18577,7 @@
         <v>39</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="38.25">
@@ -18318,7 +18585,7 @@
         <v>39</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="38.25">
@@ -18326,7 +18593,7 @@
         <v>39</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="409.5">
@@ -18334,10 +18601,10 @@
         <v>39</v>
       </c>
       <c r="B100" s="37" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="D100" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="76.5">
@@ -18345,7 +18612,7 @@
         <v>39</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="76.5">
@@ -18353,7 +18620,7 @@
         <v>39</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="89.25">
@@ -18361,7 +18628,7 @@
         <v>39</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="51">
@@ -18369,7 +18636,7 @@
         <v>39</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="89.25">
@@ -18377,7 +18644,7 @@
         <v>39</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="38.25">
@@ -18385,7 +18652,7 @@
         <v>39</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -18393,167 +18660,167 @@
         <v>39</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="76.5">
       <c r="A109" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="25.5">
       <c r="A110" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="25.5">
       <c r="A111" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="89.25">
       <c r="A112" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="51">
       <c r="A113" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="63.75">
       <c r="A114" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="63.75">
       <c r="A115" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="63.75">
       <c r="A116" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="89.25">
       <c r="A117" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="63.75">
       <c r="A118" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="63.75">
       <c r="A119" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="102">
       <c r="A120" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="63.75">
       <c r="A121" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="25.5">
       <c r="A122" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="51">
       <c r="A123" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B123" s="16" t="s">
         <v>1161</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="76.5">
       <c r="A125" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="51">
       <c r="A127" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
     </row>
   </sheetData>

--- a/storyboard and dialogues/Tłumaczenia Wydry/Reszta-polskich-poprawek.xlsx
+++ b/storyboard and dialogues/Tłumaczenia Wydry/Reszta-polskich-poprawek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarom\Documents\My Games\Wesnoth1.14\data\add-ons\Marbuss_Escape\storyboard and dialogues\Tłumaczenia Wydry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E48B63-94CC-4310-B0D6-78B933A3378C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F333AF-148A-4B5E-BF1D-51B8BA82A136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="07" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="1843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="1868">
   <si>
     <t>Event/Description</t>
   </si>
@@ -6661,9 +6661,6 @@
   </si>
   <si>
     <t>Zdaje się, że wreszcie możemy przekroczyć linię drzew. Obawiam się jednak, iż wszystko zasnuwa mgła... Przeklęte elfie czary! Nic im nie dadzą! Nasze wilki wyczują zapach elfów, ludzi bądź krasnoludów na kilometr! Nikt nie ucieknie z tego pogromu, nikt nie przeżyje!</t>
-  </si>
-  <si>
-    <t>A więc jesteście... Spodziewaliśmy się, że w końcu oprzecie się naszym czarom... Nie mogąc już na nie liczyć, użyjemy stali, by przeżyć. Cokolwiek się stanie – jedna potęga północy zostanie w tej bitwie zniszczona.</t>
   </si>
   <si>
     <t>Chciałbym przyznać ci rację, jednak nie mogę. Nawet, jeśli jakimś cudem uda wam się stawić nam opór, jeśli z nieba spadną na nas smoki, z południa zaatakuje Królestwo Wesnoth, a z najgłębszych podziemnych korytarzy wynurzą się nieumarli... Nawet wówczas, Wielka Horda wciąż będzie niezrównaną potęgą. Myślisz, że zaatakowałem was całością swoich sił? Panuję nad całą północą! To zaledwie ułamek mojej armii.</t>
@@ -8027,9 +8024,6 @@
     <t>The Change of Fate</t>
   </si>
   <si>
-    <t>Death of the King of Gon was equally as ??? For the whole North as the usage of Gjallarhorn. In a split second all spectres dissipated in midair and undead skeletons crumbled into piles of weapons and bones. A lot has been sacrificed, but the living won in this battle.</t>
-  </si>
-  <si>
     <t>The Great Sovereign leaded the Horde to last remaining cities of the Northern Alliance. The King of Gon wasn't lying when he said about the fall of southern defence line. Only a few detachments and groups of deserters remained. The North was shattered and Beatrice was taking care of its remains. During the battle she was surrounded by twelve liches, and she had to fight them with her magic. By surviving, she once again proved the power of elvish shydes.</t>
   </si>
   <si>
@@ -8232,6 +8226,87 @@
   </si>
   <si>
     <t>No! Barley, my faithful companion…</t>
+  </si>
+  <si>
+    <t>That day just came…</t>
+  </si>
+  <si>
+    <t>Northern road</t>
+  </si>
+  <si>
+    <t>Great camp of the Horde</t>
+  </si>
+  <si>
+    <t>rzeka Eugen</t>
+  </si>
+  <si>
+    <t>River Eugen</t>
+  </si>
+  <si>
+    <t>Elvish fortress</t>
+  </si>
+  <si>
+    <t>Home of All Shydes</t>
+  </si>
+  <si>
+    <t>Snowy Mountains</t>
+  </si>
+  <si>
+    <t>Blood of Elves</t>
+  </si>
+  <si>
+    <t>Death of the King of Gon was as prominent for the whole North as the usage of Gjallarhorn. In a split second all spectres dissipated in midair and undead skeletons crumbled into piles of weapons and bones. A lot has been sacrificed, but the living won in this battle.</t>
+  </si>
+  <si>
+    <t>Death of the King of Gon was as prominent for the whole North as the usage of Gjallarhorn. In a split second all spectres dissipated in midair and undead skeletons crumbled into piles of weapons and bones. A lot has been sacrificed, but the living won in this battle. Until...</t>
+  </si>
+  <si>
+    <t>The Great Sovereign lead the Horde to last remaining cities of Northern Alliance. King of Gon didn't lie, when he said about crushing southern defense line. Only a few surviving detachments and groups of deserters were left. The North was shattered, and Beatrice was trying to take care of it. During the battle she was surrounded by twelve liches, that she had to fend off with her magic. By surviving, she proved the power of elvish shydes.</t>
+  </si>
+  <si>
+    <t>The North didn't get any help from orcs. Instead of supporting his allies, Marbus attacked them with all his might. Last bastions of Northern Alliance, Elvish Jarls and Knalga were falling one by one… With the end of the King of Gon, warming came and the world began to thaw, which only sped the process. Orcs murdered, pillaged, conquered... They went frenzy and seemed even more powerfull and fearfull. Soon, the whole North was sinking in its own blood.</t>
+  </si>
+  <si>
+    <t>It lasted for five years. Remaining troops of elves, humans and dwarves came to seek cover from only person powerfull enough to face the Great Horde - Beatrice. Her magic was succesfully blocking orcs from entering the forest kingdom, but it was soon to scatter, and the last enemies of the Great Horde were about to die in fire and water...</t>
+  </si>
+  <si>
+    <t>For all those dwarven treasures we pillaged! I feel that magical barrier is about to shatter! It will soon be clear how many soldiers they still keep there… I expect a real battle, like the one twenty years ago, before all that Wild Gon mess.</t>
+  </si>
+  <si>
+    <t>This Person didn't feel so good for a long time… The flow of the river carries a smell of fear… Soon our enemies are going to kneel and beg for mercy… And the mercy will be the swords of This Person.</t>
+  </si>
+  <si>
+    <t>*Wags and barks near Marbus's leg.*</t>
+  </si>
+  <si>
+    <t>I'm glad that you all are in good mood. For a long time I wasn't so excited for upcoming battle… Even dwarves recently ceased to resist.</t>
+  </si>
+  <si>
+    <t>True that! Trolls again strong in undergrounds.</t>
+  </si>
+  <si>
+    <t>Not to mention mages and other parts of Northern Alliance… They abandon their fortresses and flee south, where Kingdom of Wesnoth gives them asylum… Well, maybe they will soon attack us by themselves? Well, but it's a matter for later… It's time to destroy the last elvish citadel!</t>
+  </si>
+  <si>
+    <t>Since the Great Horde is single-handedly ruling the North, my people have grown in power… Saurian oracles can once again gather for their sabbaths, and our hunters are once again hunting on lands we considered inaccesible, possessed by elves… I remember times of such power, but its taste seem new... And I like it.</t>
+  </si>
+  <si>
+    <t>It seems that we can finally cross the line of trees. I fear, that everything is covered with fog anyway… Damn elvish tricks! They will mean nothing anyway! Our wolves can smell elves, humans and dwarves for miles! No one will flee from this pogrom, no one will survive!</t>
+  </si>
+  <si>
+    <t>So, you're here… We expected that you will resist our spells at the end… Having nothing to count on, we'll make use of steel to survive. Whatever will happen - one power of the North will be destroyed in this battle.</t>
+  </si>
+  <si>
+    <t>A więc jesteście... Spodziewaliśmy się, że w końcu oprzecie się naszym czarom... Nie mogąc już na nie liczyć, użyjemy stali, by przeżyć. Cokolwiek się stanie – jedna potęga Północy zostanie w tej bitwie zniszczona.</t>
+  </si>
+  <si>
+    <t>I'd like to admit that you're right, but I can't. Even if you miraculosly will be able to put up a resistance against us, dragons will fall from the skies, Kingdom of Wesnoth will come from the south, and from deepest underground corridors undeads will emerge... Even if so, the Great Horde will be unrivaled power. You think I attacked you will all my forces? I rule the whole North! It's only but a fraction of my army.</t>
+  </si>
+  <si>
+    <t>Our highest priestess will defead you! You won't be able to stop her magic, to resist her… This forest will be your grave!</t>
+  </si>
+  <si>
+    <t>This Person senses desperation in your voice, treehugger… I'll do something for you… I'll order my daughters to cut you into pieces, and bury each one under one of your sacred trees… And when the burial will conclude, I'll set them on fire! There will be no more sacred groves of yours!</t>
   </si>
 </sst>
 </file>
@@ -9958,92 +10033,92 @@
     </row>
     <row r="3" spans="1:3" ht="127.5">
       <c r="B3" s="16" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="114.75">
       <c r="B4" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="102">
       <c r="B5" s="16" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="102">
       <c r="B6" s="16" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="114.75">
       <c r="B7" s="16" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="127.5">
       <c r="B8" s="16" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="153">
       <c r="B9" s="16" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="127.5">
       <c r="B10" s="16" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="127.5">
       <c r="B11" s="16" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="114.75">
       <c r="B12" s="16" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="102">
       <c r="B13" s="16" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="165.75">
       <c r="B14" s="16" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="165.75">
       <c r="B15" s="16" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="204">
       <c r="B16" s="16" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="204">
       <c r="B17" s="16" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="102">
       <c r="B18" s="16" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="114.75">
       <c r="B19" s="16" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="114.75">
       <c r="B20" s="16" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="114.75">
@@ -10058,12 +10133,12 @@
     </row>
     <row r="23" spans="1:2" ht="89.25">
       <c r="B23" s="16" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="114.75">
       <c r="B24" s="16" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="114.75">
@@ -10078,17 +10153,17 @@
     </row>
     <row r="27" spans="1:2" ht="127.5">
       <c r="B27" s="16" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="89.25">
       <c r="B28" s="16" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="63.75">
       <c r="B29" s="16" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="76.5">
@@ -10098,7 +10173,7 @@
     </row>
     <row r="31" spans="1:2" ht="114.75">
       <c r="B31" s="16" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="102">
@@ -10114,7 +10189,7 @@
         <v>1174</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="89.25">
@@ -10122,7 +10197,7 @@
         <v>1175</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="89.25">
@@ -10130,7 +10205,7 @@
         <v>1176</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
   </sheetData>
@@ -10214,7 +10289,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="16" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>1207</v>
@@ -10638,7 +10713,7 @@
     </row>
     <row r="60" spans="2:3" ht="114.75">
       <c r="B60" s="35" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C60" s="35" t="s">
         <v>1293</v>
@@ -10774,7 +10849,7 @@
     </row>
     <row r="80" spans="2:3">
       <c r="B80" s="16" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="81" spans="2:3">
@@ -10782,127 +10857,127 @@
         <v>1294</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="B82" s="16" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="B83" s="16" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" s="16" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" s="16" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="16" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" s="16" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="16" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" s="16" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="90" spans="2:3">
       <c r="B90" s="16" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="91" spans="2:3">
       <c r="B91" s="16" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" s="16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="93" spans="2:3">
       <c r="B93" s="16" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="B94" s="16" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="B95" s="16" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="96" spans="2:3">
       <c r="B96" s="16" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
   </sheetData>
@@ -10946,7 +11021,7 @@
         <v>201</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="102">
@@ -11045,7 +11120,7 @@
         <v>219</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D11" s="18"/>
     </row>
@@ -11057,7 +11132,7 @@
         <v>220</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D12" s="18"/>
     </row>
@@ -11069,7 +11144,7 @@
         <v>221</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D13" s="18"/>
     </row>
@@ -11081,7 +11156,7 @@
         <v>222</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D14" s="18"/>
     </row>
@@ -11093,7 +11168,7 @@
         <v>223</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D15" s="18"/>
     </row>
@@ -11747,7 +11822,7 @@
         <v>346</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="102">
@@ -11813,7 +11888,7 @@
         <v>357</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -11824,7 +11899,7 @@
         <v>358</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -11835,7 +11910,7 @@
         <v>359</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -11846,7 +11921,7 @@
         <v>360</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -11857,7 +11932,7 @@
         <v>361</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="38.25">
@@ -12268,7 +12343,7 @@
         <v>443</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D49" s="40" t="s">
         <v>444</v>
@@ -12684,7 +12759,7 @@
         <v>501</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D9" s="23"/>
     </row>
@@ -12696,7 +12771,7 @@
         <v>502</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -12707,7 +12782,7 @@
         <v>503</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -12718,7 +12793,7 @@
         <v>504</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -12729,7 +12804,7 @@
         <v>505</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -12740,7 +12815,7 @@
         <v>506</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -12751,7 +12826,7 @@
         <v>507</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="38.25">
@@ -12939,7 +13014,7 @@
         <v>541</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
@@ -12953,7 +13028,7 @@
         <v>542</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D33" s="40"/>
       <c r="E33" s="40"/>
@@ -13176,7 +13251,7 @@
         <v>581</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="38.25">
@@ -13377,7 +13452,7 @@
         <v>616</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -13388,7 +13463,7 @@
         <v>617</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -13399,7 +13474,7 @@
         <v>619</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="25.5">
@@ -13476,7 +13551,7 @@
         <v>633</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -13487,7 +13562,7 @@
         <v>634</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -13498,7 +13573,7 @@
         <v>635</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -13509,7 +13584,7 @@
         <v>636</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -13520,7 +13595,7 @@
         <v>637</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -13531,7 +13606,7 @@
         <v>638</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -13542,7 +13617,7 @@
         <v>639</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="38.25">
@@ -13678,10 +13753,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="140.25">
@@ -13689,10 +13764,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="102">
@@ -13700,10 +13775,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="76.5">
@@ -13714,7 +13789,7 @@
         <v>659</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -13725,7 +13800,7 @@
         <v>660</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -13736,7 +13811,7 @@
         <v>661</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -13747,7 +13822,7 @@
         <v>662</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -13758,7 +13833,7 @@
         <v>663</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -13769,7 +13844,7 @@
         <v>664</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -13780,7 +13855,7 @@
         <v>665</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="63.75">
@@ -13788,10 +13863,10 @@
         <v>26</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="51">
@@ -13802,7 +13877,7 @@
         <v>666</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -13813,7 +13888,7 @@
         <v>667</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="38.25">
@@ -13824,7 +13899,7 @@
         <v>668</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="38.25">
@@ -13835,7 +13910,7 @@
         <v>669</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="51">
@@ -13843,10 +13918,10 @@
         <v>26</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="76.5">
@@ -13854,10 +13929,10 @@
         <v>26</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="38.25">
@@ -13868,7 +13943,7 @@
         <v>670</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="51">
@@ -13879,7 +13954,7 @@
         <v>671</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25.5">
@@ -13890,7 +13965,7 @@
         <v>672</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -13901,7 +13976,7 @@
         <v>673</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -13909,7 +13984,7 @@
         <v>674</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -13920,7 +13995,7 @@
         <v>675</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.5">
@@ -13931,7 +14006,7 @@
         <v>676</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="38.25">
@@ -13942,7 +14017,7 @@
         <v>677</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="63.75">
@@ -13950,10 +14025,10 @@
         <v>229</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -13964,7 +14039,7 @@
         <v>678</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -13975,7 +14050,7 @@
         <v>679</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="51">
@@ -13986,7 +14061,7 @@
         <v>680</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="102">
@@ -13997,7 +14072,7 @@
         <v>681</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="89.25">
@@ -14005,10 +14080,10 @@
         <v>229</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="38.25">
@@ -14016,10 +14091,10 @@
         <v>229</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="38.25">
@@ -14027,10 +14102,10 @@
         <v>229</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="38.25">
@@ -14041,7 +14116,7 @@
         <v>682</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="25.5">
@@ -14052,7 +14127,7 @@
         <v>684</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="38.25">
@@ -14063,7 +14138,7 @@
         <v>685</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="25.5">
@@ -14074,7 +14149,7 @@
         <v>686</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -14085,7 +14160,7 @@
         <v>687</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -14096,7 +14171,7 @@
         <v>688</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="25.5">
@@ -14107,7 +14182,7 @@
         <v>689</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="38.25">
@@ -14115,10 +14190,10 @@
         <v>683</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -14129,7 +14204,7 @@
         <v>690</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -14140,7 +14215,7 @@
         <v>691</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="63.75">
@@ -14151,7 +14226,7 @@
         <v>692</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="38.25">
@@ -14159,10 +14234,10 @@
         <v>683</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="51">
@@ -14173,7 +14248,7 @@
         <v>693</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="25.5">
@@ -14184,7 +14259,7 @@
         <v>694</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="25.5">
@@ -14195,7 +14270,7 @@
         <v>695</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="38.25">
@@ -14203,10 +14278,10 @@
         <v>683</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -14217,7 +14292,7 @@
         <v>696</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="38.25">
@@ -14228,7 +14303,7 @@
         <v>697</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="38.25">
@@ -14239,15 +14314,15 @@
         <v>698</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="25.5">
       <c r="B55" s="16" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -14255,7 +14330,7 @@
         <v>699</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="38.25">
@@ -14263,7 +14338,7 @@
         <v>700</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -14271,15 +14346,15 @@
         <v>701</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="38.25">
       <c r="B59" s="16" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="25.5">
@@ -14287,7 +14362,7 @@
         <v>702</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="51">
@@ -14295,7 +14370,7 @@
         <v>703</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="63.75">
@@ -14303,15 +14378,15 @@
         <v>704</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="51">
       <c r="B63" s="16" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="25.5">
@@ -14319,7 +14394,7 @@
         <v>705</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="25.5">
@@ -14327,7 +14402,7 @@
         <v>706</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="25.5">
@@ -14335,7 +14410,7 @@
         <v>707</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -14343,7 +14418,7 @@
         <v>708</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="25.5">
@@ -14351,7 +14426,7 @@
         <v>709</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="25.5">
@@ -14359,7 +14434,7 @@
         <v>710</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="25.5">
@@ -14367,7 +14442,7 @@
         <v>711</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -14375,7 +14450,7 @@
         <v>712</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -14391,7 +14466,7 @@
         <v>675</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -14399,7 +14474,7 @@
         <v>714</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="25.5">
@@ -14407,7 +14482,7 @@
         <v>715</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="51">
@@ -14415,7 +14490,7 @@
         <v>716</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -14423,7 +14498,7 @@
         <v>717</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="25.5">
@@ -14434,7 +14509,7 @@
         <v>719</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="38.25">
@@ -14445,7 +14520,7 @@
         <v>720</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="25.5">
@@ -14453,10 +14528,10 @@
         <v>721</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="25.5">
@@ -14467,7 +14542,7 @@
         <v>722</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="76.5">
@@ -14478,7 +14553,7 @@
         <v>723</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="25.5">
@@ -14489,7 +14564,7 @@
         <v>724</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="51">
@@ -14497,10 +14572,10 @@
         <v>721</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="25.5">
@@ -14511,7 +14586,7 @@
         <v>725</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="25.5">
@@ -14522,7 +14597,7 @@
         <v>727</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="25.5">
@@ -14530,15 +14605,15 @@
         <v>728</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="25.5">
       <c r="B88" s="16" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="25.5">
@@ -14546,7 +14621,7 @@
         <v>722</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="76.5">
@@ -14554,7 +14629,7 @@
         <v>723</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="25.5">
@@ -14562,15 +14637,15 @@
         <v>724</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="63.75">
       <c r="B92" s="16" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="25.5">
@@ -14578,7 +14653,7 @@
         <v>728</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -14586,7 +14661,7 @@
         <v>729</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -14594,7 +14669,7 @@
         <v>730</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -14602,7 +14677,7 @@
         <v>731</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="97" spans="2:3">
@@ -14610,7 +14685,7 @@
         <v>732</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="98" spans="2:3">
@@ -14618,7 +14693,7 @@
         <v>733</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="99" spans="2:3">
@@ -14626,7 +14701,7 @@
         <v>734</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="100" spans="2:3">
@@ -14634,7 +14709,7 @@
         <v>735</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="101" spans="2:3">
@@ -14642,7 +14717,7 @@
         <v>736</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="102" spans="2:3" ht="25.5">
@@ -14650,7 +14725,7 @@
         <v>737</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="25.5">
@@ -14658,7 +14733,7 @@
         <v>738</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="25.5">
@@ -14666,15 +14741,15 @@
         <v>739</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="B105" s="16" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="38.25">
@@ -14682,7 +14757,7 @@
         <v>740</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="107" spans="2:3">
@@ -14690,7 +14765,7 @@
         <v>741</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="108" spans="2:3">
@@ -14698,7 +14773,7 @@
         <v>742</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="109" spans="2:3">
@@ -14706,7 +14781,7 @@
         <v>743</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="110" spans="2:3">
@@ -14714,7 +14789,7 @@
         <v>744</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="25.5">
@@ -14722,7 +14797,7 @@
         <v>745</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="25.5">
@@ -14730,7 +14805,7 @@
         <v>746</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="113" spans="2:3" ht="25.5">
@@ -14738,7 +14813,7 @@
         <v>747</v>
       </c>
       <c r="C113" s="38" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="114" spans="2:3">
@@ -14746,23 +14821,23 @@
         <v>748</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="115" spans="2:3">
       <c r="B115" s="16" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="116" spans="2:3" ht="51">
       <c r="B116" s="16" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="117" spans="2:3">
@@ -14770,7 +14845,7 @@
         <v>749</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="118" spans="2:3" ht="25.5">
@@ -14778,7 +14853,7 @@
         <v>750</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="119" spans="2:3">
@@ -14786,7 +14861,7 @@
         <v>751</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="120" spans="2:3" ht="25.5">
@@ -14794,7 +14869,7 @@
         <v>752</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="121" spans="2:3" ht="25.5">
@@ -14802,7 +14877,7 @@
         <v>753</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="122" spans="2:3">
@@ -14818,7 +14893,7 @@
         <v>755</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="124" spans="2:3" ht="25.5">
@@ -14826,15 +14901,15 @@
         <v>756</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="125" spans="2:3" ht="25.5">
       <c r="B125" s="16" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="126" spans="2:3" ht="51">
@@ -14842,15 +14917,15 @@
         <v>757</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="127" spans="2:3" ht="76.5">
       <c r="B127" s="16" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="128" spans="2:3">
@@ -14858,7 +14933,7 @@
         <v>758</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="129" spans="2:3" ht="63.75" customHeight="1">
@@ -14866,7 +14941,7 @@
         <v>759</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="130" spans="2:3" ht="89.25">
@@ -14874,7 +14949,7 @@
         <v>760</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="131" spans="2:3">
@@ -14882,7 +14957,7 @@
         <v>761</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="132" spans="2:3" ht="114.75">
@@ -14890,7 +14965,7 @@
         <v>762</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="133" spans="2:3" ht="25.5">
@@ -14898,7 +14973,7 @@
         <v>763</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="134" spans="2:3" ht="25.5">
@@ -14906,15 +14981,15 @@
         <v>764</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="135" spans="2:3" ht="38.25">
       <c r="B135" s="16" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="136" spans="2:3" ht="25.5">
@@ -14922,7 +14997,7 @@
         <v>765</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="137" spans="2:3" ht="38.25">
@@ -14930,31 +15005,31 @@
         <v>766</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="138" spans="2:3" ht="25.5">
       <c r="B138" s="16" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="139" spans="2:3" ht="63.75">
       <c r="B139" s="16" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="140" spans="2:3" ht="38.25">
       <c r="B140" s="16" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="141" spans="2:3" ht="38.25">
@@ -14962,23 +15037,23 @@
         <v>767</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="142" spans="2:3" ht="63.75">
       <c r="B142" s="16" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="143" spans="2:3" ht="63.75">
       <c r="B143" s="16" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C143" s="36" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
   </sheetData>
@@ -15026,7 +15101,7 @@
         <v>768</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="89.25">
@@ -15097,7 +15172,7 @@
         <v>780</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -15108,7 +15183,7 @@
         <v>501</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -15119,7 +15194,7 @@
         <v>222</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -15130,7 +15205,7 @@
         <v>781</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -15141,7 +15216,7 @@
         <v>782</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -15152,7 +15227,7 @@
         <v>783</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="38.25">
@@ -15163,7 +15238,7 @@
         <v>784</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -15174,7 +15249,7 @@
         <v>785</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="51">
@@ -15196,7 +15271,7 @@
         <v>788</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -15309,7 +15384,7 @@
         <v>808</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -15443,7 +15518,7 @@
         <v>835</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -15454,7 +15529,7 @@
         <v>837</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="63.75">
@@ -15509,7 +15584,7 @@
         <v>848</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="25.5">
@@ -15531,7 +15606,7 @@
         <v>851</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="51">
@@ -15553,7 +15628,7 @@
         <v>854</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="38.25">
@@ -15597,7 +15672,7 @@
         <v>861</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="25.5">
@@ -15622,7 +15697,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="38.25">
+    <row r="58" spans="1:3" ht="51">
       <c r="A58" t="s">
         <v>313</v>
       </c>
@@ -15680,7 +15755,7 @@
         <v>868</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="165.75">
@@ -15691,7 +15766,7 @@
         <v>869</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="165.75">
@@ -15702,7 +15777,7 @@
         <v>870</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="165.75">
@@ -15713,7 +15788,7 @@
         <v>871</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="229.5">
@@ -15724,7 +15799,7 @@
         <v>872</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -15740,7 +15815,7 @@
         <v>873</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -15748,7 +15823,7 @@
         <v>874</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5">
@@ -15759,7 +15834,7 @@
         <v>875</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="38.25">
@@ -15770,7 +15845,7 @@
         <v>876</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5">
@@ -15781,7 +15856,7 @@
         <v>877</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="63.75">
@@ -15792,7 +15867,7 @@
         <v>878</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D13" t="s">
         <v>879</v>
@@ -15806,7 +15881,7 @@
         <v>880</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="63.75">
@@ -15817,7 +15892,7 @@
         <v>881</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="63.75">
@@ -15828,7 +15903,7 @@
         <v>882</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="51">
@@ -15839,7 +15914,7 @@
         <v>883</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="51">
@@ -15850,7 +15925,7 @@
         <v>884</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="38.25">
@@ -15861,7 +15936,7 @@
         <v>885</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -15872,7 +15947,7 @@
         <v>886</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -15883,7 +15958,7 @@
         <v>887</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25.5">
@@ -15894,7 +15969,7 @@
         <v>888</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="25.5">
@@ -15905,7 +15980,7 @@
         <v>889</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="38.25">
@@ -15916,7 +15991,7 @@
         <v>890</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="63.75">
@@ -15927,7 +16002,7 @@
         <v>891</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="51">
@@ -15938,7 +16013,7 @@
         <v>892</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="102">
@@ -15949,7 +16024,7 @@
         <v>893</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="51">
@@ -15960,7 +16035,7 @@
         <v>894</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="51">
@@ -15971,7 +16046,7 @@
         <v>895</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -15982,7 +16057,7 @@
         <v>896</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="25.5">
@@ -15993,7 +16068,7 @@
         <v>897</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25.5">
@@ -16004,7 +16079,7 @@
         <v>898</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -16015,7 +16090,7 @@
         <v>899</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -16026,7 +16101,7 @@
         <v>900</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -16037,7 +16112,7 @@
         <v>901</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -16048,7 +16123,7 @@
         <v>902</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -16059,7 +16134,7 @@
         <v>903</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -16070,7 +16145,7 @@
         <v>904</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -16081,7 +16156,7 @@
         <v>905</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -16092,7 +16167,7 @@
         <v>222</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -16103,7 +16178,7 @@
         <v>781</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -16130,7 +16205,7 @@
         <v>909</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="25.5">
@@ -16141,7 +16216,7 @@
         <v>910</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="25.5">
@@ -16152,7 +16227,7 @@
         <v>911</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="51">
@@ -16163,7 +16238,7 @@
         <v>913</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="51">
@@ -16174,7 +16249,7 @@
         <v>914</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="63.75">
@@ -16185,7 +16260,7 @@
         <v>915</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -16196,7 +16271,7 @@
         <v>916</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="76.5">
@@ -16204,7 +16279,7 @@
         <v>917</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="25.5">
@@ -16212,7 +16287,7 @@
         <v>918</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="38.25">
@@ -16220,7 +16295,7 @@
         <v>919</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="63.75">
@@ -16228,7 +16303,7 @@
         <v>920</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="38.25">
@@ -16236,7 +16311,7 @@
         <v>921</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -16244,7 +16319,7 @@
         <v>922</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="25.5">
@@ -16252,7 +16327,7 @@
         <v>923</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="76.5">
@@ -16260,7 +16335,7 @@
         <v>924</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="63.75">
@@ -16268,7 +16343,7 @@
         <v>925</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="76.5">
@@ -16276,7 +16351,7 @@
         <v>926</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="89.25">
@@ -16284,7 +16359,7 @@
         <v>927</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="76.5">
@@ -16292,7 +16367,7 @@
         <v>928</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="76.5">
@@ -16300,7 +16375,7 @@
         <v>929</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="89.25">
@@ -16308,7 +16383,7 @@
         <v>930</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="89.25">
@@ -16316,7 +16391,7 @@
         <v>931</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="51">
@@ -16324,7 +16399,7 @@
         <v>932</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="51">
@@ -16332,7 +16407,7 @@
         <v>933</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="25.5">
@@ -16340,7 +16415,7 @@
         <v>934</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="25.5">
@@ -16348,7 +16423,7 @@
         <v>935</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="63.75">
@@ -16356,7 +16431,7 @@
         <v>936</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="71" spans="2:3">
@@ -16372,7 +16447,7 @@
         <v>938</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="51">
@@ -16380,7 +16455,7 @@
         <v>939</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="74" spans="2:3">
@@ -16388,7 +16463,7 @@
         <v>940</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="89.25">
@@ -16396,7 +16471,7 @@
         <v>941</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="25.5">
@@ -16404,7 +16479,7 @@
         <v>942</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="51">
@@ -16412,7 +16487,7 @@
         <v>943</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="78" spans="2:3">
@@ -16420,7 +16495,7 @@
         <v>944</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="79" spans="2:3">
@@ -16428,7 +16503,7 @@
         <v>945</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="80" spans="2:3">
@@ -16436,7 +16511,7 @@
         <v>946</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="63.75">
@@ -16444,7 +16519,7 @@
         <v>947</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="82" spans="2:3">
@@ -16452,7 +16527,7 @@
         <v>948</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="25.5">
@@ -16460,7 +16535,7 @@
         <v>949</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="76.5">
@@ -16468,7 +16543,7 @@
         <v>950</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="25.5">
@@ -16476,7 +16551,7 @@
         <v>951</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="89.25">
@@ -16484,7 +16559,7 @@
         <v>952</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="38.25">
@@ -16492,7 +16567,7 @@
         <v>953</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="38.25">
@@ -16500,7 +16575,7 @@
         <v>954</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="76.5">
@@ -16508,7 +16583,7 @@
         <v>955</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="38.25">
@@ -16516,7 +16591,7 @@
         <v>956</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="91" spans="2:3" ht="76.5">
@@ -16524,7 +16599,7 @@
         <v>957</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="76.5">
@@ -16532,7 +16607,7 @@
         <v>958</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="93" spans="2:3" ht="25.5">
@@ -16540,7 +16615,7 @@
         <v>959</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="94" spans="2:3" ht="76.5">
@@ -16548,7 +16623,7 @@
         <v>960</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="25.5">
@@ -16556,7 +16631,7 @@
         <v>961</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="102">
@@ -16564,7 +16639,7 @@
         <v>962</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="89.25">
@@ -16572,7 +16647,7 @@
         <v>963</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="38.25">
@@ -16580,7 +16655,7 @@
         <v>964</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="63.75">
@@ -16591,7 +16666,7 @@
         <v>966</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="89.25">
@@ -16599,7 +16674,7 @@
         <v>967</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="102">
@@ -16607,7 +16682,7 @@
         <v>968</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="89.25">
@@ -16615,7 +16690,7 @@
         <v>969</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="38.25">
@@ -16623,7 +16698,7 @@
         <v>970</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -16631,7 +16706,7 @@
         <v>971</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="102">
@@ -16639,7 +16714,7 @@
         <v>972</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="51">
@@ -16647,7 +16722,7 @@
         <v>973</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="51">
@@ -16655,7 +16730,7 @@
         <v>974</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -16663,7 +16738,7 @@
         <v>975</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="76.5">
@@ -16671,7 +16746,7 @@
         <v>976</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="63.75">
@@ -16679,7 +16754,7 @@
         <v>977</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="76.5">
@@ -16687,7 +16762,7 @@
         <v>978</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -16698,7 +16773,7 @@
         <v>980</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -16709,7 +16784,7 @@
         <v>981</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="51">
@@ -16720,7 +16795,7 @@
         <v>982</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -16731,7 +16806,7 @@
         <v>983</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -16742,7 +16817,7 @@
         <v>985</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="25.5">
@@ -16753,7 +16828,7 @@
         <v>986</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="51">
@@ -16764,7 +16839,7 @@
         <v>987</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -16775,7 +16850,7 @@
         <v>988</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="38.25">
@@ -16786,7 +16861,7 @@
         <v>990</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="38.25">
@@ -16797,7 +16872,7 @@
         <v>991</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="89.25">
@@ -16808,7 +16883,7 @@
         <v>993</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="63.75">
@@ -16819,7 +16894,7 @@
         <v>994</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
   </sheetData>
@@ -16836,8 +16911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -16866,7 +16941,7 @@
         <v>995</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="63.75">
@@ -16877,7 +16952,7 @@
         <v>1336</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>1774</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="114.75">
@@ -16888,7 +16963,7 @@
         <v>996</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="102">
@@ -16899,7 +16974,7 @@
         <v>997</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="102">
@@ -16910,7 +16985,7 @@
         <v>998</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="89.25">
@@ -16921,7 +16996,7 @@
         <v>999</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="114.75">
@@ -16932,7 +17007,7 @@
         <v>1000</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -16943,7 +17018,7 @@
         <v>1001</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -16954,7 +17029,7 @@
         <v>1002</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -16965,7 +17040,7 @@
         <v>1003</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="63.75">
@@ -16976,7 +17051,7 @@
         <v>1004</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="63.75">
@@ -16987,7 +17062,7 @@
         <v>1005</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="89.25">
@@ -16998,7 +17073,7 @@
         <v>1006</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="89.25">
@@ -17009,7 +17084,7 @@
         <v>1007</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="76.5">
@@ -17020,7 +17095,7 @@
         <v>1008</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -17031,7 +17106,7 @@
         <v>1009</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -17042,7 +17117,7 @@
         <v>1010</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="51">
@@ -17053,7 +17128,7 @@
         <v>1011</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="102">
@@ -17064,7 +17139,7 @@
         <v>1012</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="51">
@@ -17075,7 +17150,7 @@
         <v>1013</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="89.25">
@@ -17086,7 +17161,7 @@
         <v>1014</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -17097,7 +17172,7 @@
         <v>1015</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -17108,7 +17183,7 @@
         <v>1016</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="38.25">
@@ -17119,7 +17194,7 @@
         <v>1018</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="38.25">
@@ -17130,7 +17205,7 @@
         <v>1019</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="38.25">
@@ -17141,7 +17216,7 @@
         <v>1020</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="25.5">
@@ -17152,7 +17227,7 @@
         <v>1022</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -17174,7 +17249,7 @@
         <v>742</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="25.5">
@@ -17185,7 +17260,7 @@
         <v>1024</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="51">
@@ -17196,7 +17271,7 @@
         <v>1025</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -17229,7 +17304,7 @@
         <v>1028</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -17284,7 +17359,7 @@
         <v>1033</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="51">
@@ -17295,7 +17370,7 @@
         <v>1034</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -17306,7 +17381,7 @@
         <v>1035</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="102">
@@ -17317,7 +17392,7 @@
         <v>1036</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="63.75">
@@ -17325,10 +17400,10 @@
         <v>1021</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="63.75">
@@ -17339,7 +17414,7 @@
         <v>1037</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="63.75">
@@ -17350,7 +17425,7 @@
         <v>1038</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="38.25">
@@ -17361,7 +17436,7 @@
         <v>1039</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -17372,7 +17447,7 @@
         <v>1035</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="63.75">
@@ -17383,7 +17458,7 @@
         <v>1040</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="38.25">
@@ -17394,7 +17469,7 @@
         <v>1041</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="63.75">
@@ -17402,10 +17477,10 @@
         <v>1021</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="38.25">
@@ -17416,7 +17491,7 @@
         <v>1042</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="89.25">
@@ -17427,7 +17502,7 @@
         <v>1043</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="51">
@@ -17438,7 +17513,7 @@
         <v>1044</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="25.5">
@@ -17449,7 +17524,7 @@
         <v>1045</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="25.5">
@@ -17460,7 +17535,7 @@
         <v>1046</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -17482,7 +17557,7 @@
         <v>1050</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -17493,7 +17568,7 @@
         <v>1051</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="38.25">
@@ -17515,7 +17590,7 @@
         <v>1055</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="25.5">
@@ -17526,7 +17601,7 @@
         <v>1323</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="32.25" customHeight="1">
@@ -17581,7 +17656,7 @@
         <v>1327</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="51">
@@ -17592,7 +17667,7 @@
         <v>1328</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="38.25">
@@ -17614,7 +17689,7 @@
         <v>1330</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -17630,7 +17705,7 @@
         <v>1065</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="25.5">
@@ -17641,7 +17716,7 @@
         <v>1066</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -17652,7 +17727,7 @@
         <v>1067</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="25.5">
@@ -17663,7 +17738,7 @@
         <v>1331</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="38.25">
@@ -17674,7 +17749,7 @@
         <v>1332</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="25.5">
@@ -17685,7 +17760,7 @@
         <v>1069</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -17701,7 +17776,7 @@
         <v>1071</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -17734,7 +17809,7 @@
         <v>1074</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="51">
@@ -17745,7 +17820,7 @@
         <v>1333</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="76.5">
@@ -17756,7 +17831,7 @@
         <v>1334</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -17767,7 +17842,7 @@
         <v>1075</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
     </row>
   </sheetData>
@@ -17784,8 +17859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -17813,6 +17888,9 @@
       <c r="B2" s="16" t="s">
         <v>1076</v>
       </c>
+      <c r="C2" s="16" t="s">
+        <v>1849</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="76.5">
       <c r="A3" t="s">
@@ -17821,6 +17899,9 @@
       <c r="B3" s="16" t="s">
         <v>1335</v>
       </c>
+      <c r="C3" s="16" t="s">
+        <v>1851</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="114.75">
       <c r="A4" t="s">
@@ -17829,6 +17910,9 @@
       <c r="B4" s="16" t="s">
         <v>1077</v>
       </c>
+      <c r="C4" s="16" t="s">
+        <v>1852</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="114.75">
       <c r="A5" t="s">
@@ -17837,6 +17921,9 @@
       <c r="B5" s="16" t="s">
         <v>1337</v>
       </c>
+      <c r="C5" s="16" t="s">
+        <v>1853</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="102">
       <c r="A6" t="s">
@@ -17845,6 +17932,9 @@
       <c r="B6" s="16" t="s">
         <v>1338</v>
       </c>
+      <c r="C6" s="16" t="s">
+        <v>1854</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -17853,6 +17943,9 @@
       <c r="B7" s="16" t="s">
         <v>1078</v>
       </c>
+      <c r="C7" s="16" t="s">
+        <v>1841</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
@@ -17861,6 +17954,9 @@
       <c r="B8" s="16" t="s">
         <v>1079</v>
       </c>
+      <c r="C8" s="16" t="s">
+        <v>1842</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
@@ -17869,13 +17965,19 @@
       <c r="B9" s="16" t="s">
         <v>1080</v>
       </c>
+      <c r="C9" s="16" t="s">
+        <v>1843</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>218</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>1003</v>
+        <v>1844</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>1845</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -17885,6 +17987,9 @@
       <c r="B11" s="16" t="s">
         <v>1081</v>
       </c>
+      <c r="C11" s="16" t="s">
+        <v>1846</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
@@ -17893,6 +17998,9 @@
       <c r="B12" s="16" t="s">
         <v>1081</v>
       </c>
+      <c r="C12" s="16" t="s">
+        <v>1846</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
@@ -17901,6 +18009,9 @@
       <c r="B13" s="16" t="s">
         <v>1081</v>
       </c>
+      <c r="C13" s="16" t="s">
+        <v>1846</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
@@ -17909,6 +18020,9 @@
       <c r="B14" s="16" t="s">
         <v>1082</v>
       </c>
+      <c r="C14" s="16" t="s">
+        <v>1847</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
@@ -17917,6 +18031,9 @@
       <c r="B15" s="16" t="s">
         <v>1083</v>
       </c>
+      <c r="C15" s="16" t="s">
+        <v>1848</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="76.5">
       <c r="A16" t="s">
@@ -17925,6 +18042,9 @@
       <c r="B16" s="16" t="s">
         <v>1084</v>
       </c>
+      <c r="C16" s="16" t="s">
+        <v>1855</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="51">
       <c r="A17" t="s">
@@ -17933,6 +18053,9 @@
       <c r="B17" s="16" t="s">
         <v>1085</v>
       </c>
+      <c r="C17" s="16" t="s">
+        <v>1856</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
@@ -17941,6 +18064,9 @@
       <c r="B18" s="16" t="s">
         <v>1086</v>
       </c>
+      <c r="C18" s="16" t="s">
+        <v>1857</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="51">
       <c r="A19" t="s">
@@ -17949,6 +18075,9 @@
       <c r="B19" s="16" t="s">
         <v>1087</v>
       </c>
+      <c r="C19" s="16" t="s">
+        <v>1858</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
@@ -17957,6 +18086,9 @@
       <c r="B20" s="16" t="s">
         <v>1088</v>
       </c>
+      <c r="C20" s="16" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="76.5">
       <c r="A21" t="s">
@@ -17965,6 +18097,9 @@
       <c r="B21" s="16" t="s">
         <v>1339</v>
       </c>
+      <c r="C21" s="16" t="s">
+        <v>1860</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="89.25">
       <c r="A22" t="s">
@@ -17973,6 +18108,9 @@
       <c r="B22" s="16" t="s">
         <v>1089</v>
       </c>
+      <c r="C22" s="16" t="s">
+        <v>1861</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="63.75">
       <c r="A23" t="s">
@@ -17981,6 +18119,9 @@
       <c r="B23" s="16" t="s">
         <v>1340</v>
       </c>
+      <c r="C23" s="16" t="s">
+        <v>1862</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
@@ -17998,7 +18139,10 @@
         <v>1092</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>1341</v>
+        <v>1864</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>1863</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="102">
@@ -18006,7 +18150,10 @@
         <v>1092</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>1342</v>
+        <v>1341</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>1865</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="38.25">
@@ -18014,7 +18161,10 @@
         <v>1092</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>1343</v>
+        <v>1342</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>1866</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="76.5">
@@ -18022,7 +18172,10 @@
         <v>1092</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>1344</v>
+        <v>1343</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>1867</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -18054,7 +18207,7 @@
         <v>1095</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="25.5">
@@ -18081,7 +18234,7 @@
         <v>1098</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -18161,7 +18314,7 @@
         <v>1109</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="89.25">
@@ -18169,7 +18322,7 @@
         <v>1109</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="51">
@@ -18177,7 +18330,7 @@
         <v>1109</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="76.5">
@@ -18185,7 +18338,7 @@
         <v>1109</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -18217,7 +18370,7 @@
         <v>1109</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -18273,7 +18426,7 @@
         <v>1109</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -18313,7 +18466,7 @@
         <v>1109</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -18321,7 +18474,7 @@
         <v>1109</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="89.25">
@@ -18329,7 +18482,7 @@
         <v>1109</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="38.25">
@@ -18337,7 +18490,7 @@
         <v>1109</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="63.75">
@@ -18369,7 +18522,7 @@
         <v>1126</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="38.25">
@@ -18377,7 +18530,7 @@
         <v>1126</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="51">
@@ -18385,7 +18538,7 @@
         <v>1126</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="89.25">
@@ -18393,7 +18546,7 @@
         <v>1126</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="25.5">
@@ -18409,7 +18562,7 @@
         <v>1128</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="25.5">
@@ -18417,7 +18570,7 @@
         <v>1128</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -18441,7 +18594,7 @@
         <v>1131</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="38.25">
@@ -18465,7 +18618,7 @@
         <v>1131</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="25.5">
@@ -18473,7 +18626,7 @@
         <v>1131</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -18497,7 +18650,7 @@
         <v>1135</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="51">
@@ -18505,7 +18658,7 @@
         <v>1135</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -18545,7 +18698,7 @@
         <v>1141</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -18601,7 +18754,7 @@
         <v>39</v>
       </c>
       <c r="B100" s="37" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D100" t="s">
         <v>1148</v>
@@ -18628,7 +18781,7 @@
         <v>39</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="51">
@@ -18636,7 +18789,7 @@
         <v>39</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="89.25">
@@ -18676,7 +18829,7 @@
         <v>1154</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="25.5">
@@ -18684,7 +18837,7 @@
         <v>1154</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="25.5">
@@ -18700,7 +18853,7 @@
         <v>1157</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="51">
@@ -18708,7 +18861,7 @@
         <v>1157</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="63.75">
@@ -18716,7 +18869,7 @@
         <v>1158</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="63.75">
@@ -18724,7 +18877,7 @@
         <v>1158</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="63.75">
@@ -18732,7 +18885,7 @@
         <v>1158</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="89.25">
@@ -18740,7 +18893,7 @@
         <v>1158</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="63.75">
@@ -18748,7 +18901,7 @@
         <v>1158</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="63.75">
@@ -18764,7 +18917,7 @@
         <v>1158</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="63.75">
@@ -18772,7 +18925,7 @@
         <v>1158</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="25.5">
@@ -18804,7 +18957,7 @@
         <v>1162</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -18820,7 +18973,7 @@
         <v>1162</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
   </sheetData>

--- a/storyboard and dialogues/Tłumaczenia Wydry/Reszta-polskich-poprawek.xlsx
+++ b/storyboard and dialogues/Tłumaczenia Wydry/Reszta-polskich-poprawek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarom\Documents\My Games\Wesnoth1.14\data\add-ons\Marbuss_Escape\storyboard and dialogues\Tłumaczenia Wydry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F333AF-148A-4B5E-BF1D-51B8BA82A136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF1F4A6-2F21-4BA1-BAC7-3BD089D5ACB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="1868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="1908">
   <si>
     <t>Event/Description</t>
   </si>
@@ -8307,6 +8307,126 @@
   </si>
   <si>
     <t>This Person senses desperation in your voice, treehugger… I'll do something for you… I'll order my daughters to cut you into pieces, and bury each one under one of your sacred trees… And when the burial will conclude, I'll set them on fire! There will be no more sacred groves of yours!</t>
+  </si>
+  <si>
+    <t>We'll see, sea witch… We'll see…</t>
+  </si>
+  <si>
+    <t>I'm getting tired of talking with those, who soon won't talk anymore. Enough chit-chats before battle. Kill them!</t>
+  </si>
+  <si>
+    <t>Ugh… Damn… Orcs… Beatrice did so much for you, and you… Didn't keep… the promise…</t>
+  </si>
+  <si>
+    <t>Don't worry, Jarl. I will keep mine. I promise that no onewill touch your body… Except my daughters, that will cut it after the battle…</t>
+  </si>
+  <si>
+    <t>This is not the end… Cavalry… Fight for the Northern Alliance…</t>
+  </si>
+  <si>
+    <t>I cannot believe it…</t>
+  </si>
+  <si>
+    <t>Some cavalry is still left here! Those are mine! Warriors, to arms! And that knight's horse is mine!</t>
+  </si>
+  <si>
+    <t>We come as we promised to lady Beatrice! Last lords, commanders, officers and soldiers faithful to Northern Alliance! Grab your lances, we'll charge and rout the enemy!</t>
+  </si>
+  <si>
+    <t>Not very succesful, that ambush of yours… Even that one made by peasants in a village nearby was better. They told us, that all their valuables are kept in a barn… We went there with Gewold, and inside a dozen peasanst armed with pitchforks awaited for us. They screamed like crazy, when they jumped onto us.</t>
+  </si>
+  <si>
+    <t>They screamed even more when we set the barn on fire. But enough reminiscing. Slaughter those horses!</t>
+  </si>
+  <si>
+    <t>No… The Northern Alliance… The Lords… We cannot fall… It cannot be the end…</t>
+  </si>
+  <si>
+    <t>It may, and it is. You ruled those lands for long enough. Now a new order became. An order of the Great Horde! Tash ash krok narosh! Bring me this fool's head!</t>
+  </si>
+  <si>
+    <t>And bring me his horse! I'm going to taste a delicious horse meat! Dig my fangs into last of the Northern Alliance's horses!</t>
+  </si>
+  <si>
+    <t>*Barks cheerfully, seemingly liking that idea.*</t>
+  </si>
+  <si>
+    <t>Those elves… They aren't Jarls' warriors… But I'm sure I've seen those banners and armors… Ha! I remember! Blood Elves! I knew we'll meet again, girl!</t>
+  </si>
+  <si>
+    <t>Hahaha! You don't know how I'm glad that I see you… A lot has changed since our last meeting. But one thing remains unchanged - you don't stand a chance against us. Still, it sounds great - a descendant of Landar becomes a pawn of Kalenz's descendant… Tell me, did Beatrice scolded you much for attacking us in that cave?</t>
+  </si>
+  <si>
+    <t>You dog! I'm nobody's pawn! Me and my warriors are fighting only for ourselves. We don't care about the North, Jarls, not even Beatrice! She isn't my lady! We fight with you because we hate you!</t>
+  </si>
+  <si>
+    <t>I also awaited meeting you again. Oh, did I wait... After you let me go, I was spitted on and treated like your servant. I had to work hard to regain respect in my warriors' eyes… But I succeded. Here I am, a descendant of Cursed Landar, the ruler of Blood Elves!</t>
+  </si>
+  <si>
+    <t>The same as you hate the Jarls. You still can't change anything. It's a source of your anger, your frustration. Your forces are fierce, but low in numbers. You don't count. Wherever you go, you're just a pushover. Even now, they ordered you to guard a road bigger than yourself. So much potencial wasted...</t>
+  </si>
+  <si>
+    <t>You… Ugh… Damned…</t>
+  </si>
+  <si>
+    <t>But you know what...?</t>
+  </si>
+  <si>
+    <t>Blood Elves might become a part of the Great Horde.</t>
+  </si>
+  <si>
+    <t>I'll let you stay alive. I'll let you keep your forces. I'll let you call yourself the Queen of Elves. You'll stand on equal ground with my most dedicated servants, equal with Gewold. Equal even with Aidala! After this battle I'll order to spill all of elves' treasures before your feet. You have to do only one thing...</t>
+  </si>
+  <si>
+    <t>Bow before me.</t>
+  </si>
+  <si>
+    <t>No! I don't bow to anyone, I have no masters! I'm a descendand of Landar, filled with his hatred, his ideals, his…</t>
+  </si>
+  <si>
+    <t>You know I'll keep my promise. You hate me as much as Jarls. Under my custody Blood Elves will finally become important. Landar will finally beat Kalenz, after all those years… Didn't he deserve it? Would't he want such end? Or rather he'd like her only descendant to die pointless death protecting the Highest Priestess, that didn't even remembered her?</t>
+  </si>
+  <si>
+    <t>I… He… He'd prefer the Blood Elves to be mighty again…</t>
+  </si>
+  <si>
+    <t>Bow before me…</t>
+  </si>
+  <si>
+    <t>!!! Great Sovereign… Don't you think it's too much? We don't need them! They are nothing! I can crush that girl and her troops in mere seconds! You shouldn't…</t>
+  </si>
+  <si>
+    <t>This Person thinks, that you're not the one to speak what the Great Sovereign should or shouldn't do, Gewold… And you'd better remember it… Also, it's not the matter of extra forces for the Great Horde…</t>
+  </si>
+  <si>
+    <t>No? Then what...?</t>
+  </si>
+  <si>
+    <t>I…</t>
+  </si>
+  <si>
+    <t>It's about my satisfaction. This girl was opposing us from the very beginning, and the Blood Elves were hunting our race for ages and are responsible for annihilation of countless small clans. Making them join the Great Horde will be much bigger victory than destroying them. Then, what's your answer, girl?</t>
+  </si>
+  <si>
+    <t>Perfect! Gewold, you dared to oppose me, so you're responsible for this girl's life. You must care about her staing alive to the end of this battle, or you'll be punished… And now, Great Horde, kill the forces of that damned elvish witch!</t>
+  </si>
+  <si>
+    <t>This time I won't let you live</t>
+  </si>
+  <si>
+    <t>This time I won't make the same mistake of letting you live. I promise you, I'll burn all your banners, all mentions about yourself will be removed from books, all of your soldiers will die and any slave who will say your name will be punished by death. Before this generation passes, no one will remember that any descendand of Landar ever existed!</t>
+  </si>
+  <si>
+    <t>You… Filthy… Monster! As long as I have any blood left in my veins I'll be fighting you! My ghost will haunt you even after my death. You won't escape my revenge! I swear!</t>
+  </si>
+  <si>
+    <t>I'm not interested in oaths of an elvish girl. Many are foretelling me death and revenge, but one revengers from the other side !!!. Enough talking. Gewold, order your warriors to cut her into pieces alive.</t>
+  </si>
+  <si>
+    <t>With pleasure… You heard, boys! Forward!</t>
+  </si>
+  <si>
+    <t>For Snowfeet!</t>
   </si>
 </sst>
 </file>
@@ -8939,7 +9059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK94"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
@@ -17859,8 +17979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -18185,6 +18305,9 @@
       <c r="B29" s="16" t="s">
         <v>1093</v>
       </c>
+      <c r="C29" s="16" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="38.25">
       <c r="A30" t="s">
@@ -18193,6 +18316,9 @@
       <c r="B30" s="16" t="s">
         <v>1094</v>
       </c>
+      <c r="C30" s="16" t="s">
+        <v>1869</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="25.5">
       <c r="A31" t="s">
@@ -18201,6 +18327,9 @@
       <c r="B31" s="16" t="s">
         <v>1096</v>
       </c>
+      <c r="C31" s="16" t="s">
+        <v>1870</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="38.25">
       <c r="A32" t="s">
@@ -18209,6 +18338,9 @@
       <c r="B32" s="16" t="s">
         <v>1344</v>
       </c>
+      <c r="C32" s="16" t="s">
+        <v>1871</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="25.5">
       <c r="A33" t="s">
@@ -18217,6 +18349,9 @@
       <c r="B33" s="16" t="s">
         <v>1097</v>
       </c>
+      <c r="C33" s="16" t="s">
+        <v>1872</v>
+      </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
@@ -18236,6 +18371,9 @@
       <c r="B35" s="16" t="s">
         <v>1345</v>
       </c>
+      <c r="C35" s="16" t="s">
+        <v>1875</v>
+      </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
@@ -18244,6 +18382,9 @@
       <c r="B36" s="16" t="s">
         <v>1100</v>
       </c>
+      <c r="C36" s="16" t="s">
+        <v>1873</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="38.25">
       <c r="A37" t="s">
@@ -18252,6 +18393,9 @@
       <c r="B37" s="16" t="s">
         <v>1101</v>
       </c>
+      <c r="C37" s="16" t="s">
+        <v>1874</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="76.5">
       <c r="A38" t="s">
@@ -18260,6 +18404,9 @@
       <c r="B38" s="16" t="s">
         <v>1102</v>
       </c>
+      <c r="C38" s="16" t="s">
+        <v>1876</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="25.5">
       <c r="A39" t="s">
@@ -18268,6 +18415,9 @@
       <c r="B39" s="16" t="s">
         <v>1103</v>
       </c>
+      <c r="C39" s="16" t="s">
+        <v>1877</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="25.5">
       <c r="A40" t="s">
@@ -18276,6 +18426,9 @@
       <c r="B40" s="16" t="s">
         <v>1105</v>
       </c>
+      <c r="C40" s="16" t="s">
+        <v>1878</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="51">
       <c r="A41" t="s">
@@ -18284,6 +18437,9 @@
       <c r="B41" s="16" t="s">
         <v>1106</v>
       </c>
+      <c r="C41" s="16" t="s">
+        <v>1879</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="38.25">
       <c r="A42" t="s">
@@ -18292,6 +18448,9 @@
       <c r="B42" s="16" t="s">
         <v>1107</v>
       </c>
+      <c r="C42" s="16" t="s">
+        <v>1880</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="25.5">
       <c r="A43" t="s">
@@ -18300,6 +18459,9 @@
       <c r="B43" s="16" t="s">
         <v>1108</v>
       </c>
+      <c r="C43" s="16" t="s">
+        <v>1881</v>
+      </c>
     </row>
     <row r="44" spans="1:3" ht="51">
       <c r="A44" t="s">
@@ -18308,6 +18470,9 @@
       <c r="B44" s="16" t="s">
         <v>1110</v>
       </c>
+      <c r="C44" s="16" t="s">
+        <v>1882</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="76.5">
       <c r="A45" t="s">
@@ -18316,6 +18481,9 @@
       <c r="B45" s="16" t="s">
         <v>1346</v>
       </c>
+      <c r="C45" s="24" t="s">
+        <v>1885</v>
+      </c>
     </row>
     <row r="46" spans="1:3" ht="89.25">
       <c r="A46" t="s">
@@ -18324,6 +18492,9 @@
       <c r="B46" s="16" t="s">
         <v>1347</v>
       </c>
+      <c r="C46" s="16" t="s">
+        <v>1883</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="51">
       <c r="A47" t="s">
@@ -18332,6 +18503,9 @@
       <c r="B47" s="16" t="s">
         <v>1348</v>
       </c>
+      <c r="C47" s="16" t="s">
+        <v>1884</v>
+      </c>
     </row>
     <row r="48" spans="1:3" ht="76.5">
       <c r="A48" t="s">
@@ -18340,120 +18514,165 @@
       <c r="B48" s="16" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" s="16" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>1109</v>
       </c>
       <c r="B49" s="16" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" s="16" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>1109</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" s="16" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>1109</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="76.5">
+      <c r="C51" s="16" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="76.5">
       <c r="A52" t="s">
         <v>1109</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" s="16" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>1109</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="38.25">
+      <c r="C53" s="16" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="38.25">
       <c r="A54" t="s">
         <v>1109</v>
       </c>
       <c r="B54" s="16" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="89.25">
+      <c r="C54" s="16" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="89.25">
       <c r="A55" t="s">
         <v>1109</v>
       </c>
       <c r="B55" s="16" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="25.5">
+      <c r="C55" s="16" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="25.5">
       <c r="A56" t="s">
         <v>1109</v>
       </c>
       <c r="B56" s="16" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" s="16" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>1109</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="51">
+      <c r="C57" s="16" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="51">
       <c r="A58" t="s">
         <v>1109</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="51">
+      <c r="C58" s="16" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="51">
       <c r="A59" t="s">
         <v>1109</v>
       </c>
       <c r="B59" s="16" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" s="16" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>1109</v>
       </c>
       <c r="B60" s="16" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="76.5">
+      <c r="C60" s="16" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="76.5">
       <c r="A61" t="s">
         <v>1109</v>
       </c>
       <c r="B61" s="16" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" s="16" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>1109</v>
       </c>
       <c r="B62" s="16" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="25.5">
+      <c r="C62" s="16" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="25.5">
       <c r="A63" t="s">
         <v>1109</v>
       </c>
@@ -18461,55 +18680,73 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="63.75">
+    <row r="64" spans="1:3" ht="63.75">
       <c r="A64" t="s">
         <v>1109</v>
       </c>
       <c r="B64" s="16" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" s="16" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>1109</v>
       </c>
       <c r="B65" s="16" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="89.25">
+      <c r="C65" s="16" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="89.25">
       <c r="A66" t="s">
         <v>1109</v>
       </c>
       <c r="B66" s="16" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="38.25">
+      <c r="C66" s="16" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="38.25">
       <c r="A67" t="s">
         <v>1109</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="63.75">
+      <c r="C67" s="16" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="63.75">
       <c r="A68" t="s">
         <v>1109</v>
       </c>
       <c r="B68" s="16" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" s="16" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>1109</v>
       </c>
       <c r="B69" s="16" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="25.5">
+      <c r="C69" s="16" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="25.5">
       <c r="A70" t="s">
         <v>1126</v>
       </c>
@@ -18517,7 +18754,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="51">
+    <row r="71" spans="1:3" ht="51">
       <c r="A71" t="s">
         <v>1126</v>
       </c>
@@ -18525,7 +18762,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="38.25">
+    <row r="72" spans="1:3" ht="38.25">
       <c r="A72" t="s">
         <v>1126</v>
       </c>
@@ -18533,7 +18770,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="51">
+    <row r="73" spans="1:3" ht="51">
       <c r="A73" t="s">
         <v>1126</v>
       </c>
@@ -18541,7 +18778,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="89.25">
+    <row r="74" spans="1:3" ht="89.25">
       <c r="A74" t="s">
         <v>1126</v>
       </c>
@@ -18549,7 +18786,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="25.5">
+    <row r="75" spans="1:3" ht="25.5">
       <c r="A75" t="s">
         <v>1128</v>
       </c>
@@ -18557,7 +18794,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="89.25">
+    <row r="76" spans="1:3" ht="89.25">
       <c r="A76" t="s">
         <v>1128</v>
       </c>
@@ -18565,7 +18802,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="25.5">
+    <row r="77" spans="1:3" ht="25.5">
       <c r="A77" t="s">
         <v>1128</v>
       </c>
@@ -18573,7 +18810,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>1128</v>
       </c>
@@ -18581,7 +18818,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="25.5">
+    <row r="79" spans="1:3" ht="25.5">
       <c r="A79" t="s">
         <v>1131</v>
       </c>
@@ -18589,7 +18826,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="38.25">
+    <row r="80" spans="1:3" ht="38.25">
       <c r="A80" t="s">
         <v>1131</v>
       </c>
@@ -18814,6 +19051,9 @@
       </c>
       <c r="B107" s="16" t="s">
         <v>1153</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>1907</v>
       </c>
     </row>
     <row r="108" spans="1:4">

--- a/storyboard and dialogues/Tłumaczenia Wydry/Reszta-polskich-poprawek.xlsx
+++ b/storyboard and dialogues/Tłumaczenia Wydry/Reszta-polskich-poprawek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarom\Documents\My Games\Wesnoth1.14\data\add-ons\Marbuss_Escape\storyboard and dialogues\Tłumaczenia Wydry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF1F4A6-2F21-4BA1-BAC7-3BD089D5ACB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE38614-C320-46D6-8640-EE5CA73BF304}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="1908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="1963">
   <si>
     <t>Event/Description</t>
   </si>
@@ -8427,6 +8427,171 @@
   </si>
   <si>
     <t>For Snowfeet!</t>
+  </si>
+  <si>
+    <t>We meet again, Marbus. This time on opposite sides.</t>
+  </si>
+  <si>
+    <t>Jarl Oferiu! I didn't think we'll meet again! You did a great job helping us defead the Wild Gon. I could say, we wouldn't be here without you! You must be proud, aren't you?</t>
+  </si>
+  <si>
+    <t>Silence, Gewold. I'm glad to see you in good health, Jarl. Your help was really much for us. Is there anything I can do for you?</t>
+  </si>
+  <si>
+    <t>You can gather the Great Horde and leave the North, but I think it's too much of a demand? Well… Then I don't want anything from you. I'll stand my ground and protect lady Beatrice till I die.</t>
+  </si>
+  <si>
+    <t>I respect that, Jarl. I think I could leave you alive and make a supervisor of slaves… An administrator of your own race… But I'm afraid you're too proud for that. You wouldn't take that job, or rather, commit suicide instead. Anyway, we're thankful for your assistance against Wild Gon. We promise to kill you quickly. Painlessly.</t>
+  </si>
+  <si>
+    <t>Stop here, damned orc! I swear on my sword, you won't pass any further!</t>
+  </si>
+  <si>
+    <t>Stop. Halt. Go away. Those words work on me just like "cursed" and "filthy". It's rather boring… You are boring, Jarl. Even standing before the Great Horde, you cannot say any better words. But I see, you aren't an elder… Young, wet behind the ears… I'll give you a second chance. Go, say something elevated!</t>
+  </si>
+  <si>
+    <t>No? Well, it's your choice. Gewold, gut him before his warrior's eyes.</t>
+  </si>
+  <si>
+    <t>You don't have to say it twice, Great Sovereign!</t>
+  </si>
+  <si>
+    <t>Ugh… Dammit… But at least I die with honour… I did everything I could…</t>
+  </si>
+  <si>
+    <t>You weren't really able to do much, stupid girl… But when it comes to me, I can do a lot. And I always keep my word. I'll remove your name from history.</t>
+  </si>
+  <si>
+    <t>Dammit! Betray my own race for future glory… And die on the same day… Marbus… You didn't keep your promise…</t>
+  </si>
+  <si>
+    <t>Gewold! You were supposed to keep an eye on her! I swear, when this battle will be over, you'll pay for it!</t>
+  </si>
+  <si>
+    <t>She way an adult… She was a warrior. I came here to kill, not to take care of your girls!</t>
+  </si>
+  <si>
+    <t>This Person thinks, that you should watch your words… You won't go without a punishment, but we'll talk about it after the battle.</t>
+  </si>
+  <si>
+    <t>Ugh… Dammit… I can't fight anymore…</t>
+  </si>
+  <si>
+    <t>Should we gut him?</t>
+  </si>
+  <si>
+    <t>No. As I said, we owe you a lot, Jarl. So you'll die with honour. Lightest death in the entire battle. Give him a dagger.</t>
+  </si>
+  <si>
+    <t>Be damned, Marbus… You'll fall one day. One day, the Great Horde will fall, same as when the Northern Alliance was formed… History will repeat itself… Orcs cannot rule over us…</t>
+  </si>
+  <si>
+    <t>I'm waiting, Jarl.</t>
+  </si>
+  <si>
+    <t>*Slits his wrists*</t>
+  </si>
+  <si>
+    <t>You'll… Fall….</t>
+  </si>
+  <si>
+    <t>Ugh… What… What are you doing...?</t>
+  </si>
+  <si>
+    <t>You didn't hear the Great Sovereign? We're gutting you alive!</t>
+  </si>
+  <si>
+    <t>Aaaa! No, please… Ugh…</t>
+  </si>
+  <si>
+    <t>This is how fools die…</t>
+  </si>
+  <si>
+    <t>It took you a while to reach my defense line, orcs. I couldnt wait to see you. Same, as my friends, who you know well.</t>
+  </si>
+  <si>
+    <t>Gilfit the Snowfeet</t>
+  </si>
+  <si>
+    <t>The Snowfeet Clan will fight you to the last soldier! I'm Gilfit, last of my kin. You rended through our caves to flee from undeads. Even now, when you are feared in the whole North, we remember you fleeing for your life.</t>
+  </si>
+  <si>
+    <t>Your clan… This Person hates it… I was hiding in shadows of your waters, until I met the Great Sovereign… Today it's time for revenge. Armors and bones of dwarves are hard… It's good then, that swords of This Person are also made from very good steel.</t>
+  </si>
+  <si>
+    <t>Dwarves? And here I thought that we exterminated all pests underground. It's good they showed themselves on the surface. We'll feast our eyes on those dwarfs until we finally finish off this race and make them our slaves. And you, Jarl… You're old, embittered, and full of hatred. It's time to end your life.</t>
+  </si>
+  <si>
+    <t>I remember more battles than years you lived. I surpass you in tactical genius, experience, knowledge… You won't be able to overcome my soldiers.</t>
+  </si>
+  <si>
+    <t>We will, because we surpass you in numbers, bloodlust, and equipment. You don't even know how many weapons we've got… We keep most of it in storages, because even the Great Horde can't use all of it. And you? It's probably rather hard to get any metal in this forest. How do you fight? You share one sword for three wariors?</t>
+  </si>
+  <si>
+    <t>No… Without me… The Snowfeet Clan…</t>
+  </si>
+  <si>
+    <t>Even if we lack equipment, we still have the spirit! Elves, dwarves! Let's pay them back for everything they did to us!</t>
+  </si>
+  <si>
+    <t>Your clan is the past now. Same goes for all the Knalga. We'll stumble on you, enslave and make sure, that all your pride and hubris will be gone, replaced by fear for the Great Horde. None of underground's sons will dare to raise an axe against his orcish masters!</t>
+  </si>
+  <si>
+    <t>Curse you… To hell… Dwarves won't… Ever… Bow to you…</t>
+  </si>
+  <si>
+    <t>Your pieces will bow to me! Tear him into shreds and throw the remains before my feet!</t>
+  </si>
+  <si>
+    <t>So many years of experience… Fights… Noble battles and duels… To be attacked by… Filthy orcs! You should all die when the Wild Gon attacked. You didn't do, though… Instead, you spread, like… like vermin! Like cockroaches or ants! You spread your monstrosity... You destroy everything that's beautiful, worth fighting for...</t>
+  </si>
+  <si>
+    <t>Well, many people shares similar opinion about us. The problem is, we don't really care about it. Same goes for talking with you… Farewell, Jarl… I wish you won't be so bitter old greybeard in the afterlife.</t>
+  </si>
+  <si>
+    <t>So that's how death looks like… It's so cold… And lonely…</t>
+  </si>
+  <si>
+    <t>Any death is better than what we're preparing for those who survive. Living under the Great Horde's rule will be a greater suffering for them than any physical pain. And each, and every suffering one will be able to blame it on you. It's you, who lost. You let them down... Die with this thought, Beatrice.</t>
+  </si>
+  <si>
+    <t>Finish it…</t>
+  </si>
+  <si>
+    <t>Farewell, elvish witch. This is how your story ends and a brand new story starts. A story, about invincible Great Horde, ruling the whole North!</t>
+  </si>
+  <si>
+    <t>And here we have an elvish witch, a descendant of Kalenz, Beatrice. I was dreaming about that moment, when I can oppose you for years. For all those moments when you openly despised me, treated like I was worse than you… You don't know how much I hate you...</t>
+  </si>
+  <si>
+    <t>Your betrayal is more painful for me than deaths of all those who protected this place. They died in glory, fighting for what they believed. And you? You have choosen to live with the Great Horde, with those, who murdered your kin. You latched onto that grace and betrayed us.</t>
+  </si>
+  <si>
+    <t>I did what's the best for me and the Blood Elves. We argued for years, it's time to settle this conflict. Rise above, have you under my feet and look on you, living as slaves - that's what I want!</t>
+  </si>
+  <si>
+    <t>You become as despicable as orcs, girl. But it was only predictable… You were always full of hatred, unhealthy fascination about killing and lust for power. How could you think you could ever be equal to us? I tell you, even if my people will be forced to clean your shoes, everyone will still despise you inside.</t>
+  </si>
+  <si>
+    <t>Marbus… I regret meeting you again in such circumstances. I don't know what has come into you. Why you let your race become posessed by bloodlust again? Why you let this situation happen? Don't you see how everyone suffer because of your actions?</t>
+  </si>
+  <si>
+    <t>My warriors don't suffer. I lead the Great Horde through a bright path, that it wants to be lead. And when it comes to reasons… Well, everything could be different. But, provided my cousin lived. If you really tried to keep your alliance with us.</t>
+  </si>
+  <si>
+    <t>About your cousin I only known after it was done… I didn't want his death. I believed entirely that you can change your destiny. But it didn't happen. You still do everything to be hated. After a thousand years the King of Gon will return. Before I thought, that he's our curse, but now I understand - he was our chance. A chance to get rid of you. With a great price, but still a chance...</t>
+  </si>
+  <si>
+    <t>It doesn't matter anymore. The King of Gon is dead, and even if he returns, he'll find us even more powerfull than in this millenium. The Gjallarhorn will be passed to every new Great Sovereign, on every generation… We'll be ready for this curse to come.</t>
+  </si>
+  <si>
+    <t>Talking won't bring us anything more. Attack… I'm ready for the strike…</t>
+  </si>
+  <si>
+    <t>And I'll be glad to deal it. Forward, my warriors! Surround her fortress, don't let any tree-hugger escape! It's time for our final triumph! Tash'kfug adin!</t>
+  </si>
+  <si>
+    <t>*Gets down on one knee and bows her head. Her fighters lower their bows and do likewise.*</t>
   </si>
 </sst>
 </file>
@@ -17979,8 +18144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -18679,6 +18844,9 @@
       <c r="B63" s="16" t="s">
         <v>1123</v>
       </c>
+      <c r="C63" s="16" t="s">
+        <v>1962</v>
+      </c>
     </row>
     <row r="64" spans="1:3" ht="63.75">
       <c r="A64" t="s">
@@ -18753,6 +18921,9 @@
       <c r="B70" s="16" t="s">
         <v>1127</v>
       </c>
+      <c r="C70" s="16" t="s">
+        <v>1908</v>
+      </c>
     </row>
     <row r="71" spans="1:3" ht="51">
       <c r="A71" t="s">
@@ -18761,6 +18932,9 @@
       <c r="B71" s="16" t="s">
         <v>1356</v>
       </c>
+      <c r="C71" s="16" t="s">
+        <v>1909</v>
+      </c>
     </row>
     <row r="72" spans="1:3" ht="38.25">
       <c r="A72" t="s">
@@ -18769,6 +18943,9 @@
       <c r="B72" s="16" t="s">
         <v>1357</v>
       </c>
+      <c r="C72" s="16" t="s">
+        <v>1910</v>
+      </c>
     </row>
     <row r="73" spans="1:3" ht="51">
       <c r="A73" t="s">
@@ -18777,6 +18954,9 @@
       <c r="B73" s="16" t="s">
         <v>1358</v>
       </c>
+      <c r="C73" s="16" t="s">
+        <v>1911</v>
+      </c>
     </row>
     <row r="74" spans="1:3" ht="89.25">
       <c r="A74" t="s">
@@ -18785,6 +18965,9 @@
       <c r="B74" s="16" t="s">
         <v>1359</v>
       </c>
+      <c r="C74" s="16" t="s">
+        <v>1912</v>
+      </c>
     </row>
     <row r="75" spans="1:3" ht="25.5">
       <c r="A75" t="s">
@@ -18793,6 +18976,9 @@
       <c r="B75" s="16" t="s">
         <v>1129</v>
       </c>
+      <c r="C75" s="16" t="s">
+        <v>1913</v>
+      </c>
     </row>
     <row r="76" spans="1:3" ht="89.25">
       <c r="A76" t="s">
@@ -18801,6 +18987,9 @@
       <c r="B76" s="16" t="s">
         <v>1360</v>
       </c>
+      <c r="C76" s="16" t="s">
+        <v>1914</v>
+      </c>
     </row>
     <row r="77" spans="1:3" ht="25.5">
       <c r="A77" t="s">
@@ -18809,6 +18998,9 @@
       <c r="B77" s="16" t="s">
         <v>1361</v>
       </c>
+      <c r="C77" s="16" t="s">
+        <v>1915</v>
+      </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
@@ -18817,6 +19009,9 @@
       <c r="B78" s="16" t="s">
         <v>1130</v>
       </c>
+      <c r="C78" s="16" t="s">
+        <v>1916</v>
+      </c>
     </row>
     <row r="79" spans="1:3" ht="25.5">
       <c r="A79" t="s">
@@ -18825,6 +19020,9 @@
       <c r="B79" s="16" t="s">
         <v>1132</v>
       </c>
+      <c r="C79" s="16" t="s">
+        <v>1917</v>
+      </c>
     </row>
     <row r="80" spans="1:3" ht="38.25">
       <c r="A80" t="s">
@@ -18833,133 +19031,184 @@
       <c r="B80" s="16" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="38.25">
+      <c r="C80" s="16" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="38.25">
       <c r="A81" t="s">
         <v>1131</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="25.5">
+      <c r="C81" s="16" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="25.5">
       <c r="A82" t="s">
         <v>1131</v>
       </c>
       <c r="B82" s="16" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="25.5">
+      <c r="C82" s="16" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="25.5">
       <c r="A83" t="s">
         <v>1131</v>
       </c>
       <c r="B83" s="16" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="25.5">
+      <c r="C83" s="16" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="38.25">
       <c r="A84" t="s">
         <v>1131</v>
       </c>
       <c r="B84" s="16" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84" s="16" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>1135</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85" s="16" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>1135</v>
       </c>
       <c r="B86" s="16" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="38.25">
+      <c r="C86" s="16" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="38.25">
       <c r="A87" t="s">
         <v>1135</v>
       </c>
       <c r="B87" s="16" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="51">
+      <c r="C87" s="16" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="51">
       <c r="A88" t="s">
         <v>1135</v>
       </c>
       <c r="B88" s="16" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88" s="16" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>1135</v>
       </c>
       <c r="B89" s="16" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89" s="16" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>1135</v>
       </c>
       <c r="B90" s="16" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90" s="16" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>1135</v>
       </c>
       <c r="B91" s="16" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91" s="16" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>1141</v>
       </c>
       <c r="B92" s="16" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="25.5">
+      <c r="C92" s="16" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="25.5">
       <c r="A93" t="s">
         <v>1141</v>
       </c>
       <c r="B93" s="16" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93" s="16" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>1141</v>
       </c>
       <c r="B94" s="16" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94" s="16" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>1144</v>
       </c>
       <c r="B95" s="16" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="38.25">
+      <c r="C95" s="16" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="38.25">
       <c r="A96" t="s">
         <v>39</v>
       </c>
       <c r="B96" s="16" t="s">
         <v>1146</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>1934</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -18969,6 +19218,9 @@
       <c r="B97" s="16" t="s">
         <v>1147</v>
       </c>
+      <c r="C97" s="16" t="s">
+        <v>1935</v>
+      </c>
     </row>
     <row r="98" spans="1:4" ht="38.25">
       <c r="A98" t="s">
@@ -19004,6 +19256,9 @@
       <c r="B101" s="16" t="s">
         <v>1149</v>
       </c>
+      <c r="C101" s="16" t="s">
+        <v>1936</v>
+      </c>
     </row>
     <row r="102" spans="1:4" ht="76.5">
       <c r="A102" t="s">
@@ -19012,6 +19267,9 @@
       <c r="B102" s="16" t="s">
         <v>1150</v>
       </c>
+      <c r="C102" s="16" t="s">
+        <v>1937</v>
+      </c>
     </row>
     <row r="103" spans="1:4" ht="89.25">
       <c r="A103" t="s">
@@ -19020,6 +19278,9 @@
       <c r="B103" s="16" t="s">
         <v>1369</v>
       </c>
+      <c r="C103" s="16" t="s">
+        <v>1938</v>
+      </c>
     </row>
     <row r="104" spans="1:4" ht="51">
       <c r="A104" t="s">
@@ -19028,6 +19289,9 @@
       <c r="B104" s="16" t="s">
         <v>1370</v>
       </c>
+      <c r="C104" s="16" t="s">
+        <v>1939</v>
+      </c>
     </row>
     <row r="105" spans="1:4" ht="89.25">
       <c r="A105" t="s">
@@ -19036,6 +19300,9 @@
       <c r="B105" s="16" t="s">
         <v>1151</v>
       </c>
+      <c r="C105" s="16" t="s">
+        <v>1940</v>
+      </c>
     </row>
     <row r="106" spans="1:4" ht="38.25">
       <c r="A106" t="s">
@@ -19044,6 +19311,9 @@
       <c r="B106" s="16" t="s">
         <v>1152</v>
       </c>
+      <c r="C106" s="16" t="s">
+        <v>1942</v>
+      </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
@@ -19063,6 +19333,9 @@
       <c r="B108" s="16" t="s">
         <v>1155</v>
       </c>
+      <c r="C108" s="16" t="s">
+        <v>1941</v>
+      </c>
     </row>
     <row r="109" spans="1:4" ht="76.5">
       <c r="A109" t="s">
@@ -19071,6 +19344,9 @@
       <c r="B109" s="16" t="s">
         <v>1371</v>
       </c>
+      <c r="C109" s="16" t="s">
+        <v>1943</v>
+      </c>
     </row>
     <row r="110" spans="1:4" ht="25.5">
       <c r="A110" t="s">
@@ -19079,6 +19355,9 @@
       <c r="B110" s="16" t="s">
         <v>1372</v>
       </c>
+      <c r="C110" s="16" t="s">
+        <v>1944</v>
+      </c>
     </row>
     <row r="111" spans="1:4" ht="25.5">
       <c r="A111" t="s">
@@ -19087,6 +19366,9 @@
       <c r="B111" s="16" t="s">
         <v>1156</v>
       </c>
+      <c r="C111" s="16" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="112" spans="1:4" ht="89.25">
       <c r="A112" t="s">
@@ -19095,125 +19377,173 @@
       <c r="B112" s="16" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="51">
+      <c r="C112" s="16" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="51">
       <c r="A113" t="s">
         <v>1157</v>
       </c>
       <c r="B113" s="16" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="63.75">
+      <c r="C113" s="16" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="63.75">
       <c r="A114" t="s">
         <v>1158</v>
       </c>
       <c r="B114" s="16" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="63.75">
+      <c r="C114" s="16" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="63.75">
       <c r="A115" t="s">
         <v>1158</v>
       </c>
       <c r="B115" s="16" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="63.75">
+      <c r="C115" s="16" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="63.75">
       <c r="A116" t="s">
         <v>1158</v>
       </c>
       <c r="B116" s="16" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="89.25">
+      <c r="C116" s="16" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="89.25">
       <c r="A117" t="s">
         <v>1158</v>
       </c>
       <c r="B117" s="16" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" ht="63.75">
+      <c r="C117" s="16" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="63.75">
       <c r="A118" t="s">
         <v>1158</v>
       </c>
       <c r="B118" s="16" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" ht="63.75">
+      <c r="C118" s="16" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="63.75">
       <c r="A119" t="s">
         <v>1158</v>
       </c>
       <c r="B119" s="16" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" ht="102">
+      <c r="C119" s="16" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="102">
       <c r="A120" t="s">
         <v>1158</v>
       </c>
       <c r="B120" s="16" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" ht="63.75">
+      <c r="C120" s="16" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="63.75">
       <c r="A121" t="s">
         <v>1158</v>
       </c>
       <c r="B121" s="16" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" ht="25.5">
+      <c r="C121" s="16" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="25.5">
       <c r="A122" t="s">
         <v>1158</v>
       </c>
       <c r="B122" s="16" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" ht="51">
+      <c r="C122" s="16" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="51">
       <c r="A123" t="s">
         <v>1158</v>
       </c>
       <c r="B123" s="16" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="C123" s="16" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="25.5">
       <c r="A124" t="s">
         <v>1162</v>
       </c>
       <c r="B124" s="16" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" ht="76.5">
+      <c r="C124" s="16" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="76.5">
       <c r="A125" t="s">
         <v>1162</v>
       </c>
       <c r="B125" s="16" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="C125" s="16" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>1162</v>
       </c>
       <c r="B126" s="16" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" ht="51">
+      <c r="C126" s="16" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="51">
       <c r="A127" t="s">
         <v>1162</v>
       </c>
       <c r="B127" s="16" t="s">
         <v>1383</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>1951</v>
       </c>
     </row>
   </sheetData>
